--- a/subsetting_results/subsetting-skalpeltasql-snails-Native-gpt41nano-vectorsort.xlsx
+++ b/subsetting_results/subsetting-skalpeltasql-snails-Native-gpt41nano-vectorsort.xlsx
@@ -830,7 +830,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements', 'tblFieldDataSnakeDataCollection'}</t>
+          <t>{'tblFieldDataSnakeDataCollection', 'tblFieldDataTurtleMeasurements'}</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>{'tblLocations.SiteID', 'tblLocations.LocationID'}</t>
+          <t>{'tblLocations.LocationID', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="U9" t="n">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties', 'tblFieldDataAmphibianCallCounts'}</t>
+          <t>{'tblFieldDataAmphibianCallCounts', 'tblFieldDataWaterProperties'}</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'tblLocations', 'tblEventDataHerps'}</t>
+          <t>{'tblEventDataHerps', 'tblLocations'}</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataWaterProperties.TempC', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.LocationID'}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties', 'tblFieldDataTurtleTrapSurveys'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys', 'tblFieldDataWaterProperties'}</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'tblLocations', 'tblEventDataHerps'}</t>
+          <t>{'tblEventDataHerps', 'tblLocations'}</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.pH', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataWaterProperties.Salinity'}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleTrapSurveys.Sex'}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleTrapSurveys.EventID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataTurtleTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Weight'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Sex'}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1522,35 +1522,35 @@
         <v>8783</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tblFieldDataSnakeDataCollection'}</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1560,12 +1560,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tblFieldDataSnakeDataCollection.SVL'}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.SVL'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataSnakeDataCollection.Weight', 'tblFieldDataSnakeDataCollection.SVL'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataSnakeDataCollection.SVL', 'tblFieldDataSnakeDataCollection.Weight'}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'Observer_LU.Agency/Title'}</t>
+          <t>{'Observer_LU.Agency/Title', 'Observer_LU.ObsInits'}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.ObsInits', 'tblFieldDataTurtleMeasurements.RecordID', 'tlinkObservers.EventID'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.EventID', 'tblFieldDataTurtleMeasurements.RecordID', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{'tlinkObservers', 'tblEvents'}</t>
+          <t>{'tblEvents', 'tlinkObservers'}</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1885,12 +1885,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'tblEvents.Year', 'tblEvents.EventID', 'tlinkObservers.ObsInits', 'tlinkObservers.EventID'}</t>
+          <t>{'tblEvents.Year', 'tlinkObservers.EventID', 'tblEvents.EventID', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.EventID', 'Observer_LU.FirstName', 'tblEventDataHerps.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.LastName'}</t>
+          <t>{'Observer_LU.ObsInits', 'Observer_LU.FirstName', 'Observer_LU.LastName', 'tblEventDataHerps.EventID', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'Observer_LU.ObsInits', 'tlinkObservers.ObsInits', 'Observer_LU.FirstName', 'Observer_LU.LastName'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.FirstName', 'Observer_LU.LastName'}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTimeConstrainedSearches', 'tblLocationsPoints'}</t>
+          <t>{'tblLocationsPoints', 'tblFieldDataTimeConstrainedSearches'}</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints.UTMY', 'tblLocationsPoints.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.UTMX'}</t>
+          <t>{'tblLocationsPoints.UTMY', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMX'}</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'tluStage.Description', 'tluStage.Stage'}</t>
+          <t>{'tluStage.Stage', 'tluStage.Description'}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceID', 'tblAbundance_LU.AbundanceText'}</t>
+          <t>{'tblAbundance_LU.AbundanceText', 'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceID'}</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'tblLocations.SiteID', 'tblLocations.LocationID'}</t>
+          <t>{'tblLocations.LocationID', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'tblLocations', 'tblFieldDataCoverBoard', 'tblEventDataHerps'}</t>
+          <t>{'tblEventDataHerps', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2525,17 +2525,17 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Type', 'tblEventDataHerps.AirTemp', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.Type', 'tblLocations.LocationID'}</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.EventID', 'tblEventDataHerps.EventID', 'tblEventDataHerps.Weather'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tblFieldDataCoverBoard.EventID', 'tblEventDataHerps.Weather'}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.SiteDescription', 'tblEventDataHerps.Clouds'}</t>
+          <t>{'tblEventDataHerps.Clouds', 'tblEventDataHerps.SiteDescription'}</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>{'tluBehavior', 'tblFieldDataCoverBoard'}</t>
+          <t>{'tblFieldDataCoverBoard', 'tluBehavior'}</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataCoverBoard.EventID', 'tluBehavior.Behavior', 'tblFieldDataSnakeDataCollection.EventID', 'tblFieldDataCoverBoard.LocationID'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblFieldDataSnakeDataCollection.EventID', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataSnakeDataCollection.LocationID', 'tluBehavior.Behavior'}</t>
         </is>
       </c>
       <c r="U27" t="n">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{'tblLocations', 'tblLocationsPoints', 'tblFieldDataCoverBoard'}</t>
+          <t>{'tblLocationsPoints', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Board_#', 'tblLocationsPoints.UTMY', 'tblLocationsPoints.PointID', 'tblFieldDataCoverBoard.SnakeID', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMX'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblLocationsPoints.UTMY', 'tblFieldDataCoverBoard.Board_#', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.PointID', 'tblFieldDataCoverBoard.SnakeID', 'tblLocations.LocationID'}</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'tblLocations.SiteID', 'tblFieldDataCoverBoard.Recapture'}</t>
+          <t>{'tblFieldDataCoverBoard.Recapture', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tblEvents'}</t>
+          <t>{'tblEvents', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2845,12 +2845,12 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.EventID', 'tlinkObservers.ObsInits', 'tlinkObservers.EventID'}</t>
+          <t>{'tlinkObservers.EventID', 'tblFieldDataCoverBoard.EventID', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'tblEvents.EventID'}</t>
+          <t>{'tblEvents.EventID', 'Observer_LU.ObsInits'}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.WaterTemp', 'tblEventDataHerps.Weather'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.Weather', 'tblEventDataHerps.WaterTemp'}</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>{'tlinkObservers', 'Observer_LU', 'tblEventDataHerps'}</t>
+          <t>{'Observer_LU', 'tlinkObservers', 'tblEventDataHerps'}</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.EventID', 'tlinkObservers.EventID', 'tblEventDataHerps.AirTemp', 'tblEventDataHerps.ObsInits', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'tblEventDataHerps.AirTemp', 'Observer_LU.ObsInits', 'tblEventDataHerps.EventID', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.EventID', 'tblFieldDataWaterProperties.TempC', 'tblEventDataHerps.EventID'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tblFieldDataWaterProperties.EventID', 'tblFieldDataWaterProperties.TempC'}</t>
         </is>
       </c>
       <c r="U33" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>{'tluProject.Description', 'tluProject.Project'}</t>
+          <t>{'tluProject.Project', 'tluProject.Description'}</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>{'tluMicroHabitat.Habitat', 'tluMicroHabitat.Description'}</t>
+          <t>{'tluMicroHabitat.Description', 'tluMicroHabitat.Habitat'}</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleTrapSurveys.Trap_Type'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.Trap_Type', 'tblFieldDataTurtleTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Carapace_Width', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Sex'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Carapace_Width'}</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3805,17 +3805,17 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.subgenus'}</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>{'tbl_Events.SSMA_TimeStamp', 'tbl_Events.Event_ID', 'tbl_Nests.Event_ID', 'tlu_PlantSpecies.SSMA_TimeStamp'}</t>
+          <t>{'tbl_Nests.Event_ID', 'tlu_PlantSpecies.SSMA_TimeStamp', 'tbl_Events.Event_ID', 'tbl_Events.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U42" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -3922,35 +3922,35 @@
         <v>8015</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3960,22 +3960,22 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode'}</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Nest_ID', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode'}</t>
+          <t>{'tlu_PlantSpecies.species', 'tbl_Nests.Nest_ID'}</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
         </is>
       </c>
       <c r="U45" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>{'tbl_Events.SSMA_TimeStamp', 'tbl_Events.Event_ID', 'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.SSMA_TimeStamp'}</t>
+          <t>{'tlu_DecayStage.SSMA_TimeStamp', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Events.Event_ID', 'tbl_Events.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U46" t="n">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Event_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Event_ID'}</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Data_ID', 'tbl_Deadwood.SSMA_TimeStamp', 'tlu_DecayStage.SSMA_TimeStamp'}</t>
+          <t>{'tlu_DecayStage.SSMA_TimeStamp', 'tbl_Deadwood.SSMA_TimeStamp', 'tbl_Deadwood.Data_ID'}</t>
         </is>
       </c>
       <c r="U48" t="n">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Nests.Event_ID'}</t>
+          <t>{'tbl_Deadwood.Event_ID', 'tbl_Events.Event_ID', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Nests.Presence_First', 'tbl_Nests.Presence_Second', 'tbl_Deadwood.Data_ID'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tbl_Nests.Presence_Second', 'tbl_Deadwood.Data_ID', 'tbl_Nests.Presence_First'}</t>
         </is>
       </c>
       <c r="U49" t="n">
@@ -4405,32 +4405,32 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Nests', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4440,12 +4440,12 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>{'tbl_Nests'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Plot_ID', 'tbl_Locations.Directions', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Events.Event_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Plot_ID', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Event_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U50" t="n">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Overstory.SpCode', 'tbl_Overstory.DBH'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Overstory.DBH'}</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.SpCode', 'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Overstory.SpCode', 'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Directions', 'tbl_Tree_Tags.Location_ID'}</t>
+          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Elevation', 'tbl_Locations.Loc_Notes', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Elevation', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls.CoverClass_Num', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Event_ID', 'tbl_Nests.Cover'}</t>
+          <t>{'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Nest_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Nests.Nest_ID'}</t>
         </is>
       </c>
       <c r="U60" t="n">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.WitnessTree_ID', 'tbl_WitnessTrees.Location_ID', 'tlu_PlantSpecies.subspecies'}</t>
+          <t>{'tlu_PlantSpecies.subspecies', 'tbl_WitnessTrees.WitnessTree_ID', 'tbl_WitnessTrees.Location_ID'}</t>
         </is>
       </c>
       <c r="U62" t="n">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tlu_Roads_and_Trails'}</t>
+          <t>{'tbl_Events', 'tlu_Roads_and_Trails', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.ValidName', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Trail', 'tlu_Roads_and_Trails.ListedName', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tlu_Roads_and_Trails.ListedName', 'tlu_Roads_and_Trails.ValidName', 'tbl_Locations.Trail', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tbl_Tree_Tags.Location_ID', 'tlu_PlaceNames.State', 'tlu_PlaceNames.ID'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tlu_PlaceNames.State', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tlu_PlaceNames.Name', 'tbl_Tree_Tags.Tag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Tree_Tag_ID', 'tlu_PlaceNames.Name'}</t>
         </is>
       </c>
       <c r="U64" t="n">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.Name', 'tlu_PlaceNames.utmN'}</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.Name'}</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.TopoPosition', 'tbl_Locations.Topo_Position', 'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord', 'tlu_topo_position.ID'}</t>
+          <t>{'tbl_Locations.Topo_Position', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition'}</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.SpCode', 'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.CommonName', 'tbl_Locations.Location_ID', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Locations.Location_ID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Locations.PlaceNameID', 'tlu_PlaceNames.County', 'tlu_PlaceNames.ID'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Locations.PlaceNameID'}</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -6125,17 +6125,17 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Seedlings_ID', 'tbl_Seedlings.SpCode', 'tbl_Overstory.Overstory_ID'}</t>
+          <t>{'tbl_Seedlings.Seedlings_ID', 'tbl_Overstory.Overstory_ID', 'tbl_Seedlings.SpCode'}</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.Condition', 'tbl_Overstory.TreeCond', 'tbl_Saplings.spcode'}</t>
+          <t>{'tbl_Saplings.spcode', 'tbl_Overstory.TreeCond', 'tbl_Saplings.Condition'}</t>
         </is>
       </c>
       <c r="U71" t="n">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Ycoord'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="U72" t="n">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.R2'}</t>
+          <t>{'tbl_Nests.R2', 'tlu_Cover_Cls.CoverClass_Num'}</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>{'tlu_Presence', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Presence'}</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6360,12 +6360,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_WitnessTrees', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tbl_WitnessTrees', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Num', 'tlu_Presence.Pres_Text'}</t>
+          <t>{'tlu_Presence.Pres_Num', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.subspecies', 'tbl_Overstory.Overstory_ID', 'tbl_WitnessTrees.WitnessTree_ID', 'tbl_Nests.Nest_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Nests.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Overstory.Event_ID', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tbl_WitnessTrees.Location_ID', 'tbl_Nests.Nest_ID', 'tbl_Overstory.Event_ID', 'tbl_Locations.Location_ID', 'tbl_WitnessTrees.WitnessTree_ID', 'tbl_Overstory.Overstory_ID', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.species', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="U74" t="n">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Length', 'tbl_Deadwood.SSMA_TimeStamp', 'tbl_Deadwood.Data_ID', 'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.SSMA_TimeStamp'}</t>
+          <t>{'tbl_Deadwood.Data_ID', 'tbl_Deadwood.Length', 'tlu_DecayStage.SSMA_TimeStamp', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U75" t="n">
@@ -6562,31 +6562,31 @@
         <v>8024</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G77" t="n">
         <v>0.4</v>
       </c>
       <c r="H77" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.5</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0.5</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="M77" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.SSMA_TimeStamp', 'tlu_DecayStage.SSMA_TimeStamp'}</t>
+          <t>{'tlu_DecayStage.SSMA_TimeStamp', 'tbl_Saplings.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U77" t="n">
@@ -6642,35 +6642,35 @@
         <v>7938</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M78" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr'}</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length', 'tbl_Deadwood.SSMA_TimeStamp', 'tlu_DecayStage.SSMA_TimeStamp'}</t>
+          <t>{'tlu_DecayStage.SSMA_TimeStamp', 'tbl_Deadwood.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U78" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Aspect', 'tbl_Locations.Slope', 'tbl_Locations.Loc_Notes', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.SiteDescription', 'tbl_Locations.Slope_shape'}</t>
+          <t>{'tbl_Locations.Slope', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -6930,12 +6930,12 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>{'tlu_Live_Dead.Cond_Num', 'tbl_Saplings.Saplings_ID', 'tlu_Live_Dead.Cond_Text', 'tbl_Saplings.Event_ID'}</t>
+          <t>{'tbl_Saplings.Event_ID', 'tlu_Live_Dead.Cond_Num', 'tbl_Saplings.Saplings_ID', 'tlu_Live_Dead.Cond_Text'}</t>
         </is>
       </c>
       <c r="U81" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Notes', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Ownership'}</t>
+          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes', 'VERTEBRATES.Ownership'}</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>{'Breeding_Codes', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Breeding_Codes'}</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.BREED', 'Breeding_Codes.Breed', 'VERTEBRATES.Common_Name', 'Breeding_Codes.Definition'}</t>
+          <t>{'Breeding_Codes.Breed', 'VERTEBRATES.BREED', 'Breeding_Codes.Definition', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species'}</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -7762,35 +7762,35 @@
         <v>3159</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill'}</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7800,12 +7800,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>{'Roadkill'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.Species', 'Roadkill.number_killed', 'Roadkill.Month', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>{'Roadkill.Month', 'Roadkill.Year', 'Roadkill.Species', 'Roadkill.number_killed'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Code', 'HABITAT_CODES.Definition', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat'}</t>
+          <t>{'HABITAT_CODES.Code', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Code', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat'}</t>
+          <t>{'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'INVERTEBRATES.Number', 'VERTEBRATES.Number'}</t>
+          <t>{'VERTEBRATES.Number', 'INVERTEBRATES.Number', 'VERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="U94" t="n">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Observer', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Date', 'INVERTEBRATES.Observer', 'VERTEBRATES.Date'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Observer', 'VERTEBRATES.Date', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -8125,12 +8125,12 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'VERTEBRATES.Observer', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Date', 'INVERTEBRATES.Observer', 'VERTEBRATES.Date'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'VERTEBRATES.Observer', 'VERTEBRATES.Date', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Code', 'HABITAT_CODES.Definition'}</t>
+          <t>{'HABITAT_CODES.Definition', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Location'}</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Observer', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Observer', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.UTME', 'INVERTEBRATES.UTMN', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.UTMN', 'INVERTEBRATES.UTME'}</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.UTME'}</t>
+          <t>{'VERTEBRATES.UTME', 'VERTEBRATES.UTMN', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="U100" t="n">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>{'Roadkill.Species', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Species'}</t>
+          <t>{'Roadkill.Species', 'VERTEBRATES.Species', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9090,7 +9090,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME'}</t>
+          <t>{'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>{'Roadkill.Location', 'Roadkill.Big_Game'}</t>
+          <t>{'Roadkill.Big_Game', 'Roadkill.Location'}</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>{'Class.Class', 'Class.Field2'}</t>
+          <t>{'Class.Field2', 'Class.Class'}</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES'}</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Species', 'HABITAT_CODES.Code', 'VERTEBRATES.Number', 'HABITAT_CODES.Definition', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Species', 'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Number', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Scientific_Name', 'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME'}</t>
+          <t>{'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME', 'VERTEBRATES.Scientific_Name'}</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -9602,35 +9602,35 @@
         <v>3134</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill'}</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -9640,22 +9640,22 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>{'Roadkill'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.HWY_Mile_Marker', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.Location'}</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.HWY_Mile_Marker'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U115" t="n">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Observer', 'VERTEBRATES.Notes'}</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Order', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Location', 'INVERTEBRATES.Class', 'INVERTEBRATES.Family'}</t>
+          <t>{'INVERTEBRATES.Family', 'INVERTEBRATES.Order', 'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Observer', 'INVERTEBRATES.Location'}</t>
+          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Start_Date', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Events.Start_Date'}</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T122" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -10285,12 +10285,12 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Start_Date', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Events.Start_Date'}</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
@@ -10445,7 +10445,7 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Event_ID', 'tbl_MacroHabitat.Event_ID'}</t>
+          <t>{'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID'}</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.MacroHab', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.MicroHab'}</t>
         </is>
       </c>
       <c r="U125" t="n">
@@ -10562,35 +10562,35 @@
         <v>6467</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log'}</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -10600,22 +10600,22 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>{'tbl_Edit_Log', 'tbl_Db_Revisions'}</t>
+          <t>{'tbl_Db_Revisions'}</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log.Reason'}</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log.Table', 'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Field'}</t>
         </is>
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>{'tbl_Edit_Log.Reason', 'tbl_Db_Revisions.Revision_Reason', 'tbl_Db_Revisions.Revision_Date', 'tbl_Edit_Log.ID'}</t>
+          <t>{'tbl_Db_Revisions.Revision_Reason', 'tbl_Edit_Log.ID', 'tbl_Db_Revisions.Revision_Date'}</t>
         </is>
       </c>
       <c r="U127" t="n">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.SurfaceWater', 'tbl_MicroHabitat.Soil_Dist'}</t>
+          <t>{'tbl_MicroHabitat.Soil_Dist', 'tbl_MicroHabitat.SurfaceWater'}</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -10722,35 +10722,35 @@
         <v>6431</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_MicroHabitat', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10760,12 +10760,12 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_MicroHabitat', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_MicroHabitat.LightIndex', 'tbl_MicroHabitat.Litter', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Locations.Location_ID', 'tbl_MicroHabitat.VegHeight', 'tbl_Events.Location_ID', 'tbl_MicroHabitat.Evergreen', 'tbl_MicroHabitat.Event_ID'}</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Elevation', 'tbl_MicroHabitat.Evergreen', 'tbl_Events.Start_Date', 'tbl_MicroHabitat.VegHeight', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_MicroHabitat.Event_ID', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.LightIndex', 'tbl_Events.Location_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U129" t="n">
@@ -10930,7 +10930,7 @@
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LABE.SampleYear', 'tlu_Species_LABE.Species'}</t>
+          <t>{'tlu_Species_LABE.Species', 'tlu_Species_LABE.SampleYear'}</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_ORCA.SampleYear'}</t>
+          <t>{'tlu_Species_ORCA.SampleYear', 'tlu_Species_ORCA.Species'}</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO', 'tlu_Species_ORCA'}</t>
+          <t>{'tlu_Species_ORCA', 'tlu_Species_LAVO'}</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Position_Title', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.State_Code', 'tlu_Contacts.First_Name', 'tlu_Contacts.City'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.State_Code', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.City', 'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Position_Title', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>{'tlu_Enumerations.Enum_Code', 'tlu_Enumerations.Enum_Group', 'tlu_Enumerations.Enum_Description'}</t>
+          <t>{'tlu_Enumerations.Enum_Description', 'tlu_Enumerations.Enum_Group', 'tlu_Enumerations.Enum_Code'}</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -11725,12 +11725,12 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>{'tbl_Db_Revisions.Revision_Desc', 'tbl_Db_Revisions.Revision_Reason', 'tbl_Db_Revisions.Revision_Contact_ID'}</t>
+          <t>{'tbl_Db_Revisions.Revision_Reason', 'tbl_Db_Revisions.Revision_Contact_ID', 'tbl_Db_Revisions.Revision_Desc'}</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="T141" t="inlineStr">
@@ -11842,35 +11842,35 @@
         <v>6279</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -11880,12 +11880,12 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Sites.Route', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Length', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -11895,7 +11895,7 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_Desc', 'tbl_Sites.Length', 'tbl_Sites.Site_ID', 'tbl_Sites.Route'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U143" t="n">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_Start_Y'}</t>
+          <t>{'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_Name'}</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -12002,35 +12002,35 @@
         <v>6244</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U145" t="n">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord', 'tbl_Locations.Site_ID', 'tbl_Locations.Loc_Name'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Name', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -12162,35 +12162,35 @@
         <v>6268</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -12200,12 +12200,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U147" t="n">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'xref_Event_Contacts', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Start_Date', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Position_Title', 'tbl_Events.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Position_Title', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -12322,35 +12322,35 @@
         <v>6317</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -12360,12 +12360,12 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="U149" t="n">
@@ -12402,60 +12402,60 @@
         <v>6341</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations'}</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Events.Location_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Events.Event_ID', 'tbl_Sites.Site_Desc', 'tbl_Sites.Site_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="U150" t="n">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.HDOP', 'tbl_Locations.EPE', 'tbl_Locations.PDOP'}</t>
+          <t>{'tbl_Locations.PDOP', 'tbl_Locations.HDOP', 'tbl_Locations.EPE'}</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -12685,7 +12685,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.County', 'tbl_Locations.Loc_Type'}</t>
+          <t>{'tbl_Locations.Loc_Type', 'tbl_Locations.County'}</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -12722,35 +12722,35 @@
         <v>6298</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -12760,22 +12760,22 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Loc_Type'}</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Locations.Species', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Locations.Species', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="U154" t="n">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Subwatershed', 'tbl_Locations.Watershed', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Watershed', 'tbl_Events.Location_ID', 'tbl_Locations.Subwatershed'}</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Datum', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Loc_Type', 'tbl_Locations.Coord_System', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord', 'tbl_Locations.Loc_Name', 'tbl_Locations.Coord_Units'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Coord_Units', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Coord_System', 'tbl_Locations.Y_Coord', 'tbl_Locations.Datum', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Type', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.MacroHab', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.Event_ID'}</t>
+          <t>{'tbl_MacroHabitat.Event_ID', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.MacroHab'}</t>
         </is>
       </c>
       <c r="U159" t="n">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_MacroHabitat'}</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Start_Date', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology', 'tbl_MacroHabitat.MacroHab'}</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -13320,12 +13320,12 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.BareGround'}</t>
+          <t>{'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Herb'}</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Event_ID', 'tbl_MicroHabitat.Data_ID', 'tbl_Event_Details.Event_ID', 'xref_Event_Contacts.Event_ID'}</t>
+          <t>{'xref_Event_Contacts.Event_ID', 'tbl_MicroHabitat.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_MicroHabitat.Data_ID'}</t>
         </is>
       </c>
       <c r="U161" t="n">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_Date', 'tbl_Events.Location_ID', 'tbl_Locations.SiteDescription', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Events.Location_ID', 'tbl_Events.Event_Date', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -13725,12 +13725,12 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus', 'tbl_Nests.Event_ID'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -13805,12 +13805,12 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tbl_Overstory.Event_ID', 'tbl_Overstory.DBH'}</t>
+          <t>{'tbl_Overstory.DBH', 'tlu_PlantSpecies.species', 'tbl_Overstory.Event_ID'}</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.DClass3', 'tbl_Saplings.DClass4', 'tbl_Saplings.DClass1', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass2'}</t>
+          <t>{'tbl_Saplings.DClass4', 'tbl_Saplings.DClass1', 'tbl_Saplings.DClass3', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass2'}</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Event_ID', 'tbl_Events.Event_ID', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
@@ -14125,7 +14125,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.State', 'tlu_PlaceNames.utmN'}</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.State'}</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -14285,12 +14285,12 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeTag', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag'}</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Tag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Tree_Tag_ID'}</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
@@ -14402,35 +14402,35 @@
         <v>8351</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees'}</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -14440,22 +14440,22 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_WitnessTrees'}</t>
+          <t>{'tbl_Locations'}</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Location_ID'}</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees.Witness_stake'}</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Location_ID', 'tbl_WitnessTrees.Witness_DBH', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="U175" t="n">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="T176" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.CanPos', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -14615,7 +14615,7 @@
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.SSMA_TimeStamp', 'tbl_Overstory.Overstory_ID', 'tbl_WitnessTrees.WitnessTree_ID', 'tbl_WitnessTrees.Witness_SpCode', 'tbl_Overstory.SSMA_TimeStamp', 'tbl_WitnessTrees.SSMA_TimeStamp', 'tlu_PlantSpecies.SSMA_TimeStamp'}</t>
+          <t>{'tbl_WitnessTrees.WitnessTree_ID', 'tlu_Can_Pos.SSMA_TimeStamp', 'tbl_WitnessTrees.SSMA_TimeStamp', 'tbl_Overstory.SSMA_TimeStamp', 'tbl_WitnessTrees.Witness_SpCode', 'tbl_Overstory.Overstory_ID', 'tlu_PlantSpecies.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U177" t="n">
@@ -14685,12 +14685,12 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Aspect', 'tbl_Locations.Slope', 'tbl_Locations.SiteDescription', 'tbl_Locations.Topo_Position', 'tbl_Locations.Slope_shape', 'tbl_Locations.Elevation'}</t>
+          <t>{'tbl_Locations.Topo_Position', 'tbl_Locations.Elevation', 'tbl_Locations.Slope', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect'}</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.TopoPosition', 'tlu_topo_position.ID'}</t>
+          <t>{'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition'}</t>
         </is>
       </c>
       <c r="T178" t="inlineStr">
@@ -14760,17 +14760,17 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Nest_ID', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Cover'}</t>
+          <t>{'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Nest_ID'}</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.SpCode'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_Cover_Cls.CoverClass_Num'}</t>
         </is>
       </c>
       <c r="T179" t="inlineStr">
@@ -14830,7 +14830,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.SSMA_TimeStamp', 'tlu_DecayStage.SSMA_TimeStamp'}</t>
+          <t>{'tlu_DecayStage.SSMA_TimeStamp', 'tbl_Deadwood.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U180" t="n">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Length', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.MPD'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -15090,12 +15090,12 @@
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>{'tlu_R1_RestOfPlot.Pres_Num', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tlu_R1_RestOfPlot.Pres_Text', 'tbl_Nests.R1'}</t>
+          <t>{'tlu_R1_RestOfPlot.Pres_Text', 'tbl_Nests.SpCode', 'tbl_Nests.R1', 'tlu_R1_RestOfPlot.Pres_Num', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.species', 'tbl_Nests.Presence_Second'}</t>
+          <t>{'tlu_PlantSpecies.subspecies', 'tbl_Nests.Presence_Second', 'tlu_PlantSpecies.species'}</t>
         </is>
       </c>
       <c r="U183" t="n">
@@ -15122,35 +15122,35 @@
         <v>8314</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -15160,12 +15160,12 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesNotes'}</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.species'}</t>
         </is>
       </c>
       <c r="U184" t="n">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>{'tsys_App_Releases.File_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Release_notes'}</t>
+          <t>{'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.File_name'}</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Density', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
@@ -15485,12 +15485,12 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Overstory.SpCode', 'tbl_Overstory.Event_ID', 'tbl_Overstory.DBH'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tbl_Overstory.DBH', 'tbl_Events.Event_ID', 'tbl_Overstory.Event_ID'}</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_Date', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tbl_Events.Event_Date'}</t>
         </is>
       </c>
       <c r="T188" t="inlineStr">
@@ -15762,35 +15762,35 @@
         <v>8267</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames'}</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -15800,12 +15800,12 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.State', 'tlu_PlaceNames.Name'}</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County', 'tlu_PlaceNames.State', 'tlu_PlaceNames.Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U192" t="n">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord'}</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -16002,35 +16002,35 @@
         <v>8325</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -16040,12 +16040,12 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.CommonName', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -16055,7 +16055,7 @@
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U195" t="n">
@@ -16082,35 +16082,35 @@
         <v>8210</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -16120,12 +16120,12 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings', 'tbl_Events'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Event_Date', 'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
@@ -16135,7 +16135,7 @@
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_Date', 'tbl_Events.Event_ID', 'tbl_Seedlings.Density', 'tbl_Seedlings.Event_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U196" t="n">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
@@ -16215,7 +16215,7 @@
       </c>
       <c r="T197" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tbl_Tree_Tags.Tag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tlu_PlantSpecies.species'}</t>
         </is>
       </c>
       <c r="U197" t="n">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Locations', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.CommonName', 'tbl_Locations.Location_ID', 'tlu_PlantSpecies.genus', 'tbl_Locations.Elevation', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tbl_Locations.Elevation', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -16295,7 +16295,7 @@
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.species', 'tbl_Tree_Tags.Tag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tlu_PlantSpecies.species'}</t>
         </is>
       </c>
       <c r="U198" t="n">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Datum', 'tbl_Locations.Plot_ID', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Coord_System', 'tbl_Locations.Coord_Units'}</t>
+          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.Coord_System', 'tbl_Locations.Datum', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Plot_ID'}</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -16510,7 +16510,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -16695,7 +16695,7 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>{'FIRE.CASENO', 'CRASH.CASENO', 'FIRE.CATEGORY', 'CRASH.CASENUMBER', 'CRASH.CATEGORY', 'FIRE.FIRE', 'FIRE.CASENUMBER'}</t>
+          <t>{'FIRE.CATEGORY', 'FIRE.FIRE', 'CRASH.CATEGORY', 'CRASH.CASENUMBER', 'FIRE.CASENUMBER', 'CRASH.CASENO', 'FIRE.CASENO'}</t>
         </is>
       </c>
       <c r="U203" t="n">
@@ -16775,7 +16775,7 @@
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'EDRPRECRASH.PTIME', 'EDRPRECRASH.CASEID'}</t>
+          <t>{'EDRPRECRASH.CASEID', 'EDRPRECRASH.PTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U204" t="n">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>{'INJURY.INJLEVEL', 'INJURY.CATEGORY', 'OCC.CATEGORY', 'INJURY.OCCNO', 'INJURY.INJNO', 'OCC.OCCNO', 'INJURY.VEHNO', 'OCC.VEHNO'}</t>
+          <t>{'INJURY.INJNO', 'INJURY.INJLEVEL', 'OCC.VEHNO', 'INJURY.CATEGORY', 'OCC.OCCNO', 'INJURY.OCCNO', 'INJURY.VEHNO', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U206" t="n">
@@ -17015,7 +17015,7 @@
       </c>
       <c r="T207" t="inlineStr">
         <is>
-          <t>{'JKWGT.JKWGT16', 'JKWGT.JKWGT9', 'JKWGT.JKWGT32', 'JKWGT.JKWGT1', 'JKWGT.JKWGT8', 'JKWGT.CASENUMBER', 'JKWGT.JKWGT24', 'JKWGT.JKWGT25', 'JKWGT.JKWGT21', 'JKWGT.JKWGT27', 'JKWGT.JKWGT23', 'JKWGT.JKWGT6', 'JKWGT.JKWGT20', 'JKWGT.JKWGT26', 'JKWGT.JKWGT31', 'JKWGT.JKWGT4', 'JKWGT.JKWGT28', 'JKWGT.JKWGT18', 'JKWGT.JKWGT14', 'JKWGT.JKWGT3', 'JKWGT.JKWGT7', 'JKWGT.JKWGT2', 'JKWGT.JKWGT17', 'JKWGT.JKWGT13', 'JKWGT.JKWGT19', 'JKWGT.JKWGT11', 'JKWGT.JKWGT15', 'JKWGT.JKWGT22', 'JKWGT.JKWGT10', 'JKWGT.JKWGT29', 'JKWGT.JKWGT5', 'JKWGT.JKWGT30', 'JKWGT.JKWGT12'}</t>
+          <t>{'JKWGT.JKWGT6', 'JKWGT.JKWGT30', 'JKWGT.JKWGT31', 'JKWGT.JKWGT11', 'JKWGT.JKWGT27', 'JKWGT.JKWGT32', 'JKWGT.JKWGT20', 'JKWGT.JKWGT4', 'JKWGT.JKWGT1', 'JKWGT.JKWGT16', 'JKWGT.JKWGT13', 'JKWGT.JKWGT22', 'JKWGT.JKWGT14', 'JKWGT.JKWGT10', 'JKWGT.JKWGT3', 'JKWGT.JKWGT9', 'JKWGT.JKWGT28', 'JKWGT.JKWGT26', 'JKWGT.CASENUMBER', 'JKWGT.JKWGT12', 'JKWGT.JKWGT18', 'JKWGT.JKWGT8', 'JKWGT.JKWGT5', 'JKWGT.JKWGT7', 'JKWGT.JKWGT19', 'JKWGT.JKWGT24', 'JKWGT.JKWGT15', 'JKWGT.JKWGT21', 'JKWGT.JKWGT29', 'JKWGT.JKWGT23', 'JKWGT.JKWGT25', 'JKWGT.JKWGT2', 'JKWGT.JKWGT17'}</t>
         </is>
       </c>
       <c r="U207" t="n">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>{'JKWGT.CATEGORY', 'JKWGT.JKWGT5'}</t>
+          <t>{'JKWGT.JKWGT5', 'JKWGT.CATEGORY'}</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>{'GV.ALCTESTRESULT', 'GV.CASEID'}</t>
+          <t>{'GV.CASEID', 'GV.ALCTESTRESULT'}</t>
         </is>
       </c>
       <c r="T210" t="inlineStr">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'VPICDECODE.CASEID', 'GV.MODEL', 'GV.CURBWT', 'GV.CASEID', 'VPICDECODE.VEHNO', 'GV.MAKE'}</t>
+          <t>{'GV.CURBWT', 'GV.CASEID', 'VPICDECODE.VEHNO', 'GV.MAKE', 'GV.VEHNO', 'VPICDECODE.CASEID', 'GV.MODEL'}</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
@@ -17480,12 +17480,12 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'EVENT'}</t>
+          <t>{'EVENT', 'EDREVENT'}</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.LIGHTCOND'}</t>
+          <t>{'GV.LIGHTCOND', 'GV.CASEID'}</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
@@ -17495,7 +17495,7 @@
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'EVENT.CASEID'}</t>
+          <t>{'EVENT.CASEID', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="U213" t="n">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH', 'GV'}</t>
+          <t>{'GV', 'EDRPRECRASH'}</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
@@ -17730,7 +17730,7 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.VEHNO', 'GV.SPEEDLIMIT', 'GV.CASEID', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'GV.VEHNO'}</t>
+          <t>{'GV.CASEID', 'EDRPRECRASH.PCODE', 'GV.VEHNO', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'GV.SPEEDLIMIT', 'EDRPRECRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>{'OCC', 'EDRREST'}</t>
+          <t>{'EDRREST', 'OCC'}</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -17815,7 +17815,7 @@
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>{'EDRREST.LFOCCSIZE', 'EDRREST.CASEWGT', 'OCC.CASEWGT'}</t>
+          <t>{'OCC.CASEWGT', 'EDRREST.LFOCCSIZE', 'EDRREST.CASEWGT'}</t>
         </is>
       </c>
       <c r="U217" t="n">
@@ -17965,7 +17965,7 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>{'INTRUSION.VEHNO', 'INTRUSION.INTMAG'}</t>
+          <t>{'INTRUSION.INTMAG', 'INTRUSION.VEHNO'}</t>
         </is>
       </c>
       <c r="S219" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>{'INTRUSION.CASEID', 'INTRUSION.INTMAG'}</t>
+          <t>{'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>{'INTRUSION.VEHNO', 'INTRUSION.CASEID', 'INTRUSION.INTMAG', 'INTRUSION.INTDIRECT'}</t>
+          <t>{'INTRUSION.INTDIRECT', 'INTRUSION.INTMAG', 'INTRUSION.CASEID', 'INTRUSION.VEHNO'}</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>{'INTRUSION.VEHNO', 'INTRUSION.CASEID'}</t>
+          <t>{'INTRUSION.CASEID', 'INTRUSION.VEHNO'}</t>
         </is>
       </c>
       <c r="S222" t="inlineStr">
@@ -18530,7 +18530,7 @@
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t>{'INJURY.REGION', 'INJURY.AIS'}</t>
+          <t>{'INJURY.AIS', 'INJURY.REGION'}</t>
         </is>
       </c>
       <c r="T226" t="inlineStr">
@@ -18610,7 +18610,7 @@
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>{'INJURY.REGION', 'INJURY.AIS'}</t>
+          <t>{'INJURY.AIS', 'INJURY.REGION'}</t>
         </is>
       </c>
       <c r="T227" t="inlineStr">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.VEHNO', 'INJURY.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Make'}</t>
+          <t>{'INJURY.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
@@ -18722,35 +18722,35 @@
         <v>39889</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE', 'INJURY'}</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -18760,22 +18760,22 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>{'INJURY', 'VPICDECODE'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'INJURY.VEHNO', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'INJURY.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Make', 'INJURY.REGION'}</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">
         <is>
-          <t>{'INJURY.CATEGORY', 'VPICDECODE.ManufacturerFullName', 'INJURY.VEHNO', 'VPICDECODE.VEHNO', 'VPICDECODE.CATEGORY', 'INJURY.STRUSPEC'}</t>
+          <t>{'INJURY.CATEGORY', 'INJURY.STRUSPEC', 'VPICDECODE.ManufacturerFullName', 'VPICDECODE.CATEGORY'}</t>
         </is>
       </c>
       <c r="U229" t="n">
@@ -18840,7 +18840,7 @@
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>{'CRASH', 'EDRPOSTCRASH'}</t>
+          <t>{'EDRPOSTCRASH', 'CRASH'}</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -18855,7 +18855,7 @@
       </c>
       <c r="T230" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'EDRPOSTCRASH.PTIME', 'EDRPOSTCRASH.CASEID'}</t>
+          <t>{'EDRPOSTCRASH.CASEID', 'EDRPOSTCRASH.PTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U230" t="n">
@@ -18920,7 +18920,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>{'CRASH', 'EDRPRECRASH', 'EDRSUMM'}</t>
+          <t>{'EDRSUMM', 'CRASH', 'EDRPRECRASH'}</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -18935,7 +18935,7 @@
       </c>
       <c r="T231" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.CASENO', 'EDRSUMM.CASENUMBER', 'EDRSUMM.CASENO', 'CRASH.CASENO', 'EDRPRECRASH.CASENUMBER', 'EMSCARE.CASENUMBER', 'EMSCARE.EMSCARE', 'CRASH.CASENUMBER', 'EMSCARE.CASENO'}</t>
+          <t>{'EDRPRECRASH.CASENUMBER', 'EDRPRECRASH.CASENO', 'EMSCARE.CASENO', 'EDRSUMM.CASENUMBER', 'EDRSUMM.CASENO', 'EMSCARE.EMSCARE', 'EMSCARE.CASENUMBER', 'CRASH.CASENUMBER', 'CRASH.CASENO'}</t>
         </is>
       </c>
       <c r="U231" t="n">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>{'CRASH', 'EDRPOSTCRASH', 'EDRSUMM'}</t>
+          <t>{'EDRPOSTCRASH', 'EDRSUMM', 'CRASH'}</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>{'CRASH.CASEID', 'EDRPOSTCRASH.CASEID', 'EDRSUMM.CASEID'}</t>
+          <t>{'EDRSUMM.CASEID', 'EDRPOSTCRASH.CASEID', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U233" t="n">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.SCENEDEP', 'EMSCARE.ARRMEDICAL', 'EMSCARE.CASEID', 'EMSCARE.SCENEARR', 'EMSCARE.NOTIFIED'}</t>
+          <t>{'EMSCARE.ARRMEDICAL', 'EMSCARE.NOTIFIED', 'EMSCARE.CASEID', 'EMSCARE.SCENEARR', 'EMSCARE.SCENEDEP'}</t>
         </is>
       </c>
       <c r="S234" t="inlineStr">
@@ -19175,7 +19175,7 @@
       </c>
       <c r="T234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.CATEGORY', 'EMSCARE.EMSCARE'}</t>
+          <t>{'EMSCARE.EMSCARE', 'EMSCARE.CATEGORY'}</t>
         </is>
       </c>
       <c r="U234" t="n">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.ModelYear', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.Model', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="U236" t="n">
@@ -19362,35 +19362,35 @@
         <v>39859</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L237" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N237" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
@@ -19400,22 +19400,22 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>{'VPICDECODE'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.ModelYear', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.Model'}</t>
         </is>
       </c>
       <c r="U237" t="n">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH', 'FUEL'}</t>
+          <t>{'FUEL', 'EDRPOSTCRASH'}</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19810,7 +19810,7 @@
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.CDCPLANE', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.CDCPLANE'}</t>
         </is>
       </c>
       <c r="T242" t="inlineStr">
@@ -19890,12 +19890,12 @@
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t>{'INTERIOR.GLAZINGCONT', 'INTERIOR.CASEID'}</t>
+          <t>{'INTERIOR.CASEID', 'INTERIOR.GLAZINGCONT'}</t>
         </is>
       </c>
       <c r="T243" t="inlineStr">
         <is>
-          <t>{'OCC.CATEGORY', 'OCC.OCCNO', 'GLAZING.VEHNO', 'GLAZING.CATEGORY', 'GLAZING.GLAZTYPE', 'OCC.VEHNO'}</t>
+          <t>{'GLAZING.GLAZTYPE', 'GLAZING.CATEGORY', 'OCC.VEHNO', 'OCC.OCCNO', 'GLAZING.VEHNO', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U243" t="n">
@@ -19955,7 +19955,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC'}</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
@@ -19970,7 +19970,7 @@
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC.RECFRONT1'}</t>
         </is>
       </c>
       <c r="T244" t="inlineStr">
@@ -20055,7 +20055,7 @@
       </c>
       <c r="T245" t="inlineStr">
         <is>
-          <t>{'GLAZING.VEHNO', 'GLAZING.GLAZTYPE'}</t>
+          <t>{'GLAZING.GLAZTYPE', 'GLAZING.VEHNO'}</t>
         </is>
       </c>
       <c r="U245" t="n">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t>{'GLAZING.CASEID', 'GV.CASEID', 'GLAZING.GLAZIMP', 'GV.VIN', 'GV.VEHNO'}</t>
+          <t>{'GV.VIN', 'GV.CASEID', 'GLAZING.GLAZIMP', 'GV.VEHNO', 'GLAZING.CASEID'}</t>
         </is>
       </c>
       <c r="T246" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>{'EDRSUMM', 'EDRPOSTCRASH', 'CRASH', 'VPICDECODE', 'EVENT', 'EDREVENT'}</t>
+          <t>{'VPICDECODE', 'EDRPOSTCRASH', 'EDRSUMM', 'EDREVENT', 'CRASH', 'EVENT'}</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="T247" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH.EDREVENTNO', 'EDRSUMM.EDRSUMMNO', 'VPICDECODE.CATEGORY', 'EDREVENT.CATEGORY', 'CRASH.CATEGORY', 'EDRSUMM.VEHNO', 'EDRPOSTCRASH.EDRSUMMNO', 'EDREVENT.VEHNO', 'EVENT.EVENTNO', 'EVENT.CATEGORY', 'EDREVENT.EDRSUMMNO', 'EDREVENT.EDREVENTNO', 'VPICDECODE.AdaptiveDrivingBeam', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.CATEGORY', 'VPICDECODE.VEHNO', 'EDRPOSTCRASH.CATEGORY'}</t>
+          <t>{'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'EDRSUMM.VEHNO', 'EVENT.CATEGORY', 'EDRSUMM.CATEGORY', 'CRASH.CATEGORY', 'EDRPOSTCRASH.EDREVENTNO', 'EDREVENT.EDREVENTNO', 'EVENT.EVENTNO', 'VPICDECODE.AdaptiveDrivingBeam', 'EDRPOSTCRASH.VEHNO', 'EDREVENT.CATEGORY', 'EDRPOSTCRASH.EDRSUMMNO', 'EDRSUMM.EDRSUMMNO', 'EDREVENT.EDRSUMMNO', 'EDRPOSTCRASH.CATEGORY', 'VPICDECODE.CATEGORY'}</t>
         </is>
       </c>
       <c r="U247" t="n">
@@ -20242,22 +20242,22 @@
         <v>39965</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L248" t="n">
         <v>0</v>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'EDRPOSTCRASH'}</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>{'CRASH', 'EDRPOSTCRASH', 'EVENT', 'EDREVENT'}</t>
+          <t>{'EVENT', 'EDREVENT', 'CRASH'}</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20290,12 +20290,12 @@
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'EDRPOSTCRASH.PCODE', 'EDRPOSTCRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>{'EVENT.CATEGORY', 'EDREVENT.CATEGORY', 'EDREVENT.EDREVENTNO', 'EDRPOSTCRASH.EDREVENTNO', 'CRASH.CATEGORY', 'EVENT.EVENTNO', 'EDRPOSTCRASH.CATEGORY'}</t>
+          <t>{'EDREVENT.CATEGORY', 'EVENT.CATEGORY', 'EDRPOSTCRASH.CATEGORY', 'CRASH.CATEGORY', 'EDRPOSTCRASH.EDREVENTNO', 'EDREVENT.EDREVENTNO', 'EVENT.EVENTNO'}</t>
         </is>
       </c>
       <c r="U248" t="n">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'EVENT', 'VEHMEAS'}</t>
+          <t>{'EVENT', 'EDREVENT', 'VEHMEAS'}</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="T250" t="inlineStr">
         <is>
-          <t>{'VEHMEAS.VEHNO', 'VEHMEAS.CASEID', 'EVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.CASEID'}</t>
+          <t>{'VEHMEAS.CASEID', 'EDREVENT.VEHNO', 'VEHMEAS.VEHNO', 'EVENT.CASEID', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="U250" t="n">
@@ -20520,22 +20520,22 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'EVENT', 'VEHMEAS'}</t>
+          <t>{'EVENT', 'EDREVENT', 'VEHMEAS'}</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.CASEID', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="T251" t="inlineStr">
         <is>
-          <t>{'VEHMEAS.VEHNO', 'VEHMEAS.CASEID', 'EVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.CASEID'}</t>
+          <t>{'VEHMEAS.CASEID', 'EDREVENT.VEHNO', 'VEHMEAS.VEHNO', 'EVENT.CASEID', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="U251" t="n">
@@ -20925,7 +20925,7 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>{'OCC.HEIGHT', 'OCC.AGE'}</t>
+          <t>{'OCC.AGE', 'OCC.HEIGHT'}</t>
         </is>
       </c>
       <c r="S256" t="inlineStr">
@@ -21245,7 +21245,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.BELTAVAIL'}</t>
+          <t>{'OCC.BELTAVAIL', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="S260" t="inlineStr">
@@ -21490,7 +21490,7 @@
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.PDOF', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.PDOF'}</t>
         </is>
       </c>
       <c r="T263" t="inlineStr">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'EVENT', 'EDRREST', 'EDRSUMM'}</t>
+          <t>{'EVENT', 'EDRSUMM', 'EDRREST', 'EDREVENT'}</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21575,7 +21575,7 @@
       </c>
       <c r="T264" t="inlineStr">
         <is>
-          <t>{'EVENT.CATEGORY', 'EDREVENT.EDRSUMMNO', 'EDREVENT.EDREVENTNO', 'EDRREST.EDREVENTNO', 'EDRSUMM.EDRSUMMNO', 'EDRREST.CATEGORY', 'EDREVENT.CATEGORY', 'EDRSUMM.VEHNO', 'EDRSUMM.CATEGORY', 'EDREVENT.VEHNO', 'EVENT.EVENTNO', 'EDRREST.EDRSUMMNO', 'EDRREST.VEHNO'}</t>
+          <t>{'EDRREST.EDRSUMMNO', 'EDRREST.VEHNO', 'EDREVENT.VEHNO', 'EDREVENT.CATEGORY', 'EDRREST.EDREVENTNO', 'EDRSUMM.VEHNO', 'EVENT.CATEGORY', 'EDRSUMM.CATEGORY', 'EDRSUMM.EDRSUMMNO', 'EDRREST.CATEGORY', 'EDREVENT.EDRSUMMNO', 'EDREVENT.EDREVENTNO', 'EVENT.EVENTNO'}</t>
         </is>
       </c>
       <c r="U264" t="n">
@@ -21635,7 +21635,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC'}</t>
         </is>
       </c>
       <c r="Q265" t="inlineStr">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="S265" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC.CMAX'}</t>
         </is>
       </c>
       <c r="T265" t="inlineStr">
@@ -21730,12 +21730,12 @@
       </c>
       <c r="S266" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.DAMAPILLAR', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.DAMAPILLAR'}</t>
         </is>
       </c>
       <c r="T266" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.DAMAGE', 'TIRE.VEHNO', 'TIREDAMAGE.TIRELOC', 'TIRE.TIRELOC', 'TIREDAMAGE.VEHNO'}</t>
+          <t>{'TIRE.TIRELOC', 'TIREDAMAGE.VEHNO', 'TIREDAMAGE.DAMAGE', 'TIREDAMAGE.TIRELOC', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="U266" t="n">
@@ -21810,7 +21810,7 @@
       </c>
       <c r="S267" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.DAMOTHPILLAR', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.DAMOTHPILLAR'}</t>
         </is>
       </c>
       <c r="T267" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC'}</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC.DVBARRIER'}</t>
         </is>
       </c>
       <c r="T269" t="inlineStr">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH', 'CRASH'}</t>
+          <t>{'CRASH', 'EDRPOSTCRASH'}</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -22050,12 +22050,12 @@
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t>{'CDC.C6', 'CDC.C4', 'CDC.C1', 'CDC.CMAX', 'CDC.C3', 'CDC.VEHNO', 'CDC.CASEID', 'CDC.C5', 'CDC.C2'}</t>
+          <t>{'CDC.C1', 'CDC.C2', 'CDC.CASEID', 'CDC.C3', 'CDC.CMAX', 'CDC.VEHNO', 'CDC.C5', 'CDC.C6', 'CDC.C4'}</t>
         </is>
       </c>
       <c r="T270" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH.PCODE', 'CRASH.CASEID', 'EDRPOSTCRASH.PTIME', 'EDRPOSTCRASH.CASEID', 'EDRPOSTCRASH.PVALUE', 'EDRPOSTCRASH.VEHNO'}</t>
+          <t>{'EDRPOSTCRASH.PCODE', 'EDRPOSTCRASH.PVALUE', 'EDRPOSTCRASH.VEHNO', 'EDRPOSTCRASH.CASEID', 'CRASH.CASEID', 'EDRPOSTCRASH.PTIME'}</t>
         </is>
       </c>
       <c r="U270" t="n">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>{'CRASH', 'EVENT', 'EDRPOSTCRASH', 'EDRSUMM'}</t>
+          <t>{'EVENT', 'EDRSUMM', 'EDRPOSTCRASH', 'CRASH'}</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22130,12 +22130,12 @@
       </c>
       <c r="S271" t="inlineStr">
         <is>
-          <t>{'EDREVENT.VEHNO', 'EDREVENT.CASEID', 'EDREVENT.EDRSUMMNO'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.EDRSUMMNO'}</t>
         </is>
       </c>
       <c r="T271" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.CASEID', 'CRASH.CASEID', 'CRASH.EVENTS', 'EDRSUMM.EDRSUMMNO', 'EDRPOSTCRASH.CASEID', 'EDRSUMM.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EVENT.CASEID', 'EDRPOSTCRASH.EDRSUMMNO', 'EDRSUMM.NUMEVENTS'}</t>
+          <t>{'EDRPOSTCRASH.VEHNO', 'EDRPOSTCRASH.EDRSUMMNO', 'EDRSUMM.VEHNO', 'EDRSUMM.EDRSUMMNO', 'EDRSUMM.NUMEVENTS', 'CRASH.EVENTS', 'EDRSUMM.CASEID', 'EVENT.CASEID', 'EDRPOSTCRASH.CASEID', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U271" t="n">
@@ -22200,12 +22200,12 @@
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>{'CRASH', 'EVENT'}</t>
+          <t>{'EVENT', 'CRASH'}</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.EDREVENTNO', 'EDREVENT.EDREVENTNO'}</t>
+          <t>{'EDREVENT.EDREVENTNO', 'EDRPRECRASH.EDREVENTNO'}</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
@@ -22215,7 +22215,7 @@
       </c>
       <c r="T272" t="inlineStr">
         <is>
-          <t>{'EVENT.CASENO', 'EDRPRECRASH.CASENO', 'EVENT.CATEGORY', 'CRASH.CASENO', 'EDRPRECRASH.PTIME', 'EDRPRECRASH.CATEGORY', 'EDRPRECRASH.CASENUMBER', 'EDREVENT.CASENUMBER', 'EDREVENT.CATEGORY', 'EVENT.CASENUMBER', 'CRASH.CATEGORY', 'CRASH.CASENUMBER', 'EDREVENT.CASENO', 'EVENT.EVENTNO'}</t>
+          <t>{'EDRPRECRASH.CASENUMBER', 'EDRPRECRASH.CASENO', 'EDREVENT.CASENO', 'EDREVENT.CATEGORY', 'EVENT.EVENTNO', 'EVENT.CATEGORY', 'CRASH.CATEGORY', 'EVENT.CASENUMBER', 'CRASH.CASENUMBER', 'EDRPRECRASH.PTIME', 'EVENT.CASENO', 'EDRPRECRASH.CATEGORY', 'CRASH.CASENO', 'EDREVENT.CASENUMBER'}</t>
         </is>
       </c>
       <c r="U272" t="n">
@@ -22285,17 +22285,17 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.ModelYear', 'VPICDECODE.CASEID', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>{'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.IGCYCRASH', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>{'VEHMEAS.LFBC', 'VEHMEAS.CASEID'}</t>
+          <t>{'VEHMEAS.CASEID', 'VEHMEAS.LFBC'}</t>
         </is>
       </c>
       <c r="U273" t="n">
@@ -22370,7 +22370,7 @@
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>{'EDREVENT.VEHNO', 'EDREVENT.IGCYCRASH', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="T274" t="inlineStr">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>{'INJURY.OCCNO', 'INJURY.VEHNO', 'INJURY.CASEID', 'INJURY.INJNO'}</t>
+          <t>{'INJURY.CASEID', 'INJURY.OCCNO', 'INJURY.VEHNO', 'INJURY.INJNO'}</t>
         </is>
       </c>
       <c r="S275" t="inlineStr">
@@ -22455,7 +22455,7 @@
       </c>
       <c r="T275" t="inlineStr">
         <is>
-          <t>{'INJURY.CATEGORY', 'OCC.CATEGORY', 'OCC.OCCNO', 'OCC.CASEID', 'OCC.VEHNO'}</t>
+          <t>{'OCC.CASEID', 'OCC.VEHNO', 'INJURY.CATEGORY', 'OCC.OCCNO', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U275" t="n">
@@ -22535,7 +22535,7 @@
       </c>
       <c r="T276" t="inlineStr">
         <is>
-          <t>{'FIRE.CATEGORY', 'FUEL.CATEGORY', 'FIRE.FIRE'}</t>
+          <t>{'FUEL.CATEGORY', 'FIRE.FIRE', 'FIRE.CATEGORY'}</t>
         </is>
       </c>
       <c r="U276" t="n">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>{'EJECT.OCCNO', 'OCC.OCCNO', 'EJECT.VEHNO', 'OCC.CASEID', 'EJECT.CASEID', 'OCC.VEHNO'}</t>
+          <t>{'OCC.CASEID', 'OCC.VEHNO', 'OCC.OCCNO', 'EJECT.OCCNO', 'EJECT.CASEID', 'EJECT.VEHNO'}</t>
         </is>
       </c>
       <c r="T277" t="inlineStr">
@@ -22695,7 +22695,7 @@
       </c>
       <c r="T278" t="inlineStr">
         <is>
-          <t>{'EDREVENT.VEHNO', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="U278" t="n">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'INJURY', 'EVENT', 'VPICDECODE'}</t>
+          <t>{'EVENT', 'VPICDECODE', 'EDREVENT', 'INJURY'}</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22775,7 +22775,7 @@
       </c>
       <c r="T279" t="inlineStr">
         <is>
-          <t>{'INJURY.CATEGORY', 'EVENT.CATEGORY', 'VPICDECODE.CATEGORY', 'EDREVENT.VEHNO', 'INJURY.VEHNO', 'EDREVENT.CATEGORY', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'INJURY.CATEGORY', 'EDREVENT.CATEGORY', 'EVENT.CATEGORY', 'INJURY.VEHNO', 'VPICDECODE.CATEGORY'}</t>
         </is>
       </c>
       <c r="U279" t="n">
@@ -22802,22 +22802,22 @@
         <v>39851</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L280" t="n">
         <v>0</v>
@@ -22830,7 +22830,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID'}</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>{'AVOID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22850,7 +22850,7 @@
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID.AVAIL', 'AVOID.EQUIP'}</t>
         </is>
       </c>
       <c r="T280" t="inlineStr">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>{'AVOID.VEHNO', 'AVOID.EQUIP'}</t>
+          <t>{'AVOID.EQUIP', 'AVOID.VEHNO'}</t>
         </is>
       </c>
       <c r="S281" t="inlineStr">
@@ -23010,7 +23010,7 @@
       </c>
       <c r="S282" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.VEHNO', 'TIREDAMAGE.CASEID'}</t>
+          <t>{'TIREDAMAGE.CASEID', 'TIREDAMAGE.VEHNO'}</t>
         </is>
       </c>
       <c r="T282" t="inlineStr">
@@ -23250,12 +23250,12 @@
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECRRPRESS1', 'TIREPLAC.GVWR', 'TIREPLAC.RECFRPRESS1'}</t>
+          <t>{'TIREPLAC.GVWR', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1'}</t>
         </is>
       </c>
       <c r="T285" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'VEHMEAS.VEHNO'}</t>
+          <t>{'VEHMEAS.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="U285" t="n">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="T286" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'TIRE.VEHNO', 'VEHMEAS.VEHNO', 'VPICDECODE.MakeId', 'TIRE.TIREMANUF', 'VPICDECODE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'VPICDECODE.VEHNO', 'TIRE.TIREMODEL', 'VPICDECODE.MakeId', 'VEHMEAS.VEHNO', 'TIRE.TIREMANUF', 'TIRE.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="U286" t="n">
@@ -23395,7 +23395,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q287" t="inlineStr">
@@ -23410,12 +23410,12 @@
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'TIREPLAC.VEHNO', 'VPICDECODE.VEHNO', 'TIREPLAC.RECFRONT1'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T287" t="inlineStr">
         <is>
-          <t>{'TIRE.TIRETREAD', 'TIRE.TIRESIZE', 'TIRE.VEHNO', 'VEHMEAS.VEHNO'}</t>
+          <t>{'TIRE.TIRETREAD', 'TIRE.TIRESIZE', 'VEHMEAS.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="U287" t="n">
@@ -23485,17 +23485,17 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.ModelYear', 'VPICDECODE.VEHNO', 'VPICDECODE.Make', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.CASEID', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.VEHNO', 'TIREPLAC.RECFRONT1', 'TIREPLAC.RECFRPRESS1'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.CASEID', 'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1'}</t>
         </is>
       </c>
       <c r="T288" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'VEHMEAS.VEHNO', 'TIRE.CATEGORY', 'VEHSPEC.CATEGORY', 'VPICDECODE.CATEGORY', 'TIRE.TIRESIZE', 'VEHMEAS.CATEGORY', 'VEHSPEC.VEHNO'}</t>
+          <t>{'TIRE.TIRESIZE', 'VEHMEAS.VEHNO', 'VEHSPEC.VEHNO', 'VEHSPEC.CATEGORY', 'TIRE.VEHNO', 'VPICDECODE.CATEGORY', 'VEHMEAS.CATEGORY', 'TIRE.CATEGORY'}</t>
         </is>
       </c>
       <c r="U288" t="n">
@@ -23565,7 +23565,7 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S289" t="inlineStr">
@@ -23645,12 +23645,12 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'TIRE.CASEID', 'VPICDECODE.VEHNO'}</t>
+          <t>{'TIRE.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T290" t="inlineStr">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S291" t="inlineStr">
@@ -23805,12 +23805,12 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.DAMAGE', 'TIREDAMAGE.CASEID', 'TIREDAMAGE.VEHNO', 'TIRE.CASEID'}</t>
+          <t>{'TIREDAMAGE.CASEID', 'TIREDAMAGE.DAMAGE', 'TIRE.CASEID', 'TIREDAMAGE.VEHNO'}</t>
         </is>
       </c>
       <c r="T292" t="inlineStr">
@@ -23885,17 +23885,17 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'TIRE.TIRESIZE', 'TIRE.VEHNO'}</t>
+          <t>{'TIRE.TIRESIZE', 'TIRE.CASEID', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIREPLAC.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.RECFRONT1'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO'}</t>
         </is>
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="U293" t="n">
@@ -23950,7 +23950,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIRE'}</t>
+          <t>{'TIRE', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
@@ -23965,12 +23965,12 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'TIRE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.Make', 'TIRE.TIRESIZE', 'TIRE.CASEID', 'VPICDECODE.VEHNO'}</t>
+          <t>{'TIRE.CASEID', 'VPICDECODE.VEHNO', 'TIRE.TIRESIZE', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIRE.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIREPLAC.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.RECFRONT1'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO'}</t>
         </is>
       </c>
       <c r="T294" t="inlineStr">
@@ -24002,60 +24002,60 @@
         <v>40019</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L295" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N295" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIRE'}</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>{'TIRE', 'VEHSPEC', 'VEHMEAS'}</t>
+          <t>{'VEHSPEC', 'VEHMEAS'}</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIRE.TIRESIZE', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'VPICDECODE.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'VPICDECODE.CASEID', 'TIREPLAC.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T295" t="inlineStr">
         <is>
-          <t>{'VEHSPEC.WHEELBASE', 'TIRE.VEHNO', 'VEHMEAS.VEHNO', 'VEHSPEC.VEHNO', 'TIRE.TIRESIZE'}</t>
+          <t>{'VEHMEAS.VEHNO', 'VEHSPEC.WHEELBASE', 'VEHSPEC.VEHNO'}</t>
         </is>
       </c>
       <c r="U295" t="n">
@@ -24195,12 +24195,12 @@
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT', 'DISTRACT'}</t>
+          <t>{'DISTRACT', 'CHILDSEAT'}</t>
         </is>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>{'INJURY', 'OCC'}</t>
+          <t>{'OCC', 'INJURY'}</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24210,12 +24210,12 @@
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.OCCNO', 'DISTRACT.CASEID', 'CHILDSEAT.CASEID'}</t>
+          <t>{'DISTRACT.CASEID', 'CHILDSEAT.OCCNO', 'CHILDSEAT.CASEID'}</t>
         </is>
       </c>
       <c r="T297" t="inlineStr">
         <is>
-          <t>{'INJURY.INJLEVEL', 'INJURY.CATEGORY', 'OCC.CATEGORY', 'INJURY.CASEID', 'INJURY.INJNO', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'INJURY.INJNO', 'INJURY.INJLEVEL', 'INJURY.CATEGORY', 'INJURY.CASEID', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U297" t="n">
@@ -24290,12 +24290,12 @@
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'CHILDSEAT.CASEID', 'VPICDECODE.VEHNO', 'CHILDSEAT.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'CHILDSEAT.CASEID', 'CHILDSEAT.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>{'SEAT.CATEGORY', 'SEAT.CASENO', 'VEHSPEC.CATEGORY', 'VEHSPEC.CASENO', 'VEHSPEC.VEHNO', 'SEAT.VEHNO'}</t>
+          <t>{'SEAT.CASENO', 'VEHSPEC.VEHNO', 'VEHSPEC.CASENO', 'SEAT.VEHNO', 'VEHSPEC.CATEGORY', 'SEAT.CATEGORY'}</t>
         </is>
       </c>
       <c r="U298" t="n">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'DISTRACT'}</t>
+          <t>{'DISTRACT', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q299" t="inlineStr">
@@ -24370,12 +24370,12 @@
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t>{'DISTRACT.VEHNO', 'DISTRACT.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'DISTRACT.DISTRACTN', 'CHILDSEAT.CASEID', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'DISTRACT.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'CHILDSEAT.CASEID', 'DISTRACT.VEHNO', 'VPICDECODE.Make', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>{'SEAT.CATEGORY', 'CHILDSEAT.CATEGORY', 'VEHSPEC.CATEGORY', 'OCC.CATEGORY', 'VEHSPEC.VEHNO', 'OCC.VEHNO', 'SEAT.VEHNO'}</t>
+          <t>{'CHILDSEAT.CATEGORY', 'OCC.VEHNO', 'VEHSPEC.VEHNO', 'SEAT.VEHNO', 'VEHSPEC.CATEGORY', 'OCC.CATEGORY', 'SEAT.CATEGORY'}</t>
         </is>
       </c>
       <c r="U299" t="n">
@@ -24440,7 +24440,7 @@
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>{'OCC', 'VEHSPEC'}</t>
+          <t>{'VEHSPEC', 'OCC'}</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24450,12 +24450,12 @@
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.VEHNO', 'DISTRACT.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.CASEID', 'DISTRACT.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>{'VEHSPEC.CATEGORY', 'OCC.CATEGORY', 'OCC.OCCNO', 'DISTRACT.CATEGORY', 'VEHSPEC.VEHNO', 'OCC.VEHNO'}</t>
+          <t>{'OCC.VEHNO', 'OCC.OCCNO', 'VEHSPEC.VEHNO', 'VEHSPEC.CATEGORY', 'DISTRACT.CATEGORY', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U300" t="n">
@@ -24525,17 +24525,17 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>{'FIRE.VEHNO', 'FIRE.CASEID', 'FIRE.FIRE'}</t>
+          <t>{'FIRE.VEHNO', 'FIRE.FIRE', 'FIRE.CASEID'}</t>
         </is>
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T301" t="inlineStr">
         <is>
-          <t>{'FIRE.CASENO', 'CRASH.CASENO', 'CRASH.CASEID', 'FIRE.CATEGORY', 'CRASH.CATEGORY'}</t>
+          <t>{'FIRE.CATEGORY', 'CRASH.CATEGORY', 'CRASH.CASEID', 'CRASH.CASENO', 'FIRE.CASENO'}</t>
         </is>
       </c>
       <c r="U301" t="n">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.LEVEL', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID'}</t>
+          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.LEVEL'}</t>
         </is>
       </c>
       <c r="S302" t="inlineStr">
@@ -24615,7 +24615,7 @@
       </c>
       <c r="T302" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.ENTITY_NAME', 'Accountability_Levels.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Accountability_Levels.YEAR', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Levels.ENTITY_CD', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Levels.YEAR', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="U302" t="n">
@@ -24690,7 +24690,7 @@
       </c>
       <c r="S303" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}</t>
+          <t>{'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR'}</t>
         </is>
       </c>
       <c r="T303" t="inlineStr">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="T305" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U305" t="n">
@@ -24925,17 +24925,17 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.SUBGROUP_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_MATH.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T306" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_MATH.TOTAL_COUNT', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'Expenditures_per_Pupil.INSTITUTION_ID', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_MATH.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID', 'Annual_EM_MATH.TOTAL_COUNT', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U306" t="n">
@@ -25005,7 +25005,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_CD'}</t>
+          <t>{'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Participation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="S307" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="T307" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U307" t="n">
@@ -25085,7 +25085,7 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.YEAR'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
@@ -25165,12 +25165,12 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.SUBJECT'}</t>
+          <t>{'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR'}</t>
         </is>
       </c>
       <c r="S309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.TESTED'}</t>
+          <t>{'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T309" t="inlineStr">
@@ -25245,12 +25245,12 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status.YEAR', 'Accountability_Status.OVERALL_STATUS'}</t>
         </is>
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Accountability_Status.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Accountability_Status.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T310" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.MADE_PROGRESS', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status.YEAR', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.MADE_PROGRESS'}</t>
         </is>
       </c>
       <c r="S311" t="inlineStr">
@@ -25335,7 +25335,7 @@
       </c>
       <c r="T311" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Accountability_Levels.YEAR', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID'}</t>
+          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Levels.ENTITY_CD', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.YEAR', 'Accountability_Status.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="U311" t="n">
@@ -25405,17 +25405,17 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}</t>
         </is>
       </c>
       <c r="T312" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.WGT_LEVEL', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX'}</t>
         </is>
       </c>
       <c r="U312" t="n">
@@ -25485,12 +25485,12 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S316" t="inlineStr">
@@ -25805,7 +25805,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUCCESS_RATIO'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S317" t="inlineStr">
@@ -25815,7 +25815,7 @@
       </c>
       <c r="T317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U317" t="n">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART'}</t>
         </is>
       </c>
       <c r="S318" t="inlineStr">
@@ -26045,17 +26045,17 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART'}</t>
         </is>
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.LEVEL', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_ELP.ENTITY_CD'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U320" t="n">
@@ -26130,12 +26130,12 @@
       </c>
       <c r="S321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T321" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR'}</t>
+          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR'}</t>
         </is>
       </c>
       <c r="U321" t="n">
@@ -26210,7 +26210,7 @@
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.MET_95_PERCENT', 'ACC_EM_Participation_Rate.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.MET_95_PERCENT'}</t>
         </is>
       </c>
       <c r="T322" t="inlineStr">
@@ -26275,7 +26275,7 @@
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_EM_Participation_Rate'}</t>
+          <t>{'ACC_EM_Participation_Rate', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q323" t="inlineStr">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.RATE'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
@@ -26435,7 +26435,7 @@
       </c>
       <c r="P325" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="Q325" t="inlineStr">
@@ -26450,12 +26450,12 @@
       </c>
       <c r="S325" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -26520,7 +26520,7 @@
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance', 'ACC_HS_Chronic_Absenteeism'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26530,12 +26530,12 @@
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="T326" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U326" t="n">
@@ -26610,7 +26610,7 @@
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T327" t="inlineStr">
@@ -26642,35 +26642,35 @@
         <v>15854</v>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M328" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="N328" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
@@ -26680,12 +26680,12 @@
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_HS_Chronic_Absenteeism'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.YEAR', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S328" t="inlineStr">
@@ -26695,7 +26695,7 @@
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U328" t="n">
@@ -26770,12 +26770,12 @@
       </c>
       <c r="S329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="T329" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX'}</t>
         </is>
       </c>
       <c r="U329" t="n">
@@ -26835,7 +26835,7 @@
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="Q330" t="inlineStr">
@@ -26850,12 +26850,12 @@
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="T330" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.YEAR'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U330" t="n">
@@ -26915,7 +26915,7 @@
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="Q331" t="inlineStr">
@@ -26930,7 +26930,7 @@
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="T331" t="inlineStr">
@@ -27010,12 +27010,12 @@
       </c>
       <c r="S332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.SUCCESS_RATIO'}</t>
+          <t>{'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="T332" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.LEVEL', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_ELP.SUCCESS_RATIO'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT'}</t>
         </is>
       </c>
       <c r="U332" t="n">
@@ -27085,7 +27085,7 @@
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT'}</t>
         </is>
       </c>
       <c r="S333" t="inlineStr">
@@ -27095,7 +27095,7 @@
       </c>
       <c r="T333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.SUBGROUP_NAME'}</t>
+          <t>{'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_Participation_Rate.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U333" t="n">
@@ -27155,7 +27155,7 @@
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_ELP', 'Institution_Grouping', 'Expenditures_per_Pupil'}</t>
         </is>
       </c>
       <c r="Q334" t="inlineStr">
@@ -27170,12 +27170,12 @@
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'Institution_Grouping.GROUP_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="T334" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.YEAR'}</t>
+          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="U334" t="n">
@@ -27250,12 +27250,12 @@
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="T335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Accountability_Levels.YEAR', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR', 'Accountability_Levels.INSTITUTION_ID'}</t>
+          <t>{'Accountability_Status.INSTITUTION_ID', 'Accountability_Levels.ENTITY_CD', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.YEAR', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="U335" t="n">
@@ -27325,7 +27325,7 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S336" t="inlineStr">
@@ -27335,7 +27335,7 @@
       </c>
       <c r="T336" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="U336" t="n">
@@ -27405,7 +27405,7 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S337" t="inlineStr">
@@ -27415,7 +27415,7 @@
       </c>
       <c r="T337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.ENTITY_NAME', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="U337" t="n">
@@ -27490,7 +27490,7 @@
       </c>
       <c r="S338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T338" t="inlineStr">
@@ -27570,12 +27570,12 @@
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.PCT_TESTED'}</t>
+          <t>{'Annual_EM_SCIENCE.PCT_TESTED', 'Annual_EM_SCIENCE.TOTAL_COUNT'}</t>
         </is>
       </c>
       <c r="U339" t="n">
@@ -27730,7 +27730,7 @@
       </c>
       <c r="S341" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EXP'}</t>
+          <t>{'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T341" t="inlineStr">
@@ -27810,7 +27810,7 @@
       </c>
       <c r="S342" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="T342" t="inlineStr">
@@ -27890,12 +27890,12 @@
       </c>
       <c r="S343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBJECT', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.YEAR'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U343" t="n">
@@ -27970,12 +27970,12 @@
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_EMER', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT'}</t>
+          <t>{'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="T344" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.YEAR'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Institution_Grouping.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U344" t="n">
@@ -28050,12 +28050,12 @@
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.NUM_TRAN', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.NUM_EXP'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.NUM_TRAN'}</t>
         </is>
       </c>
       <c r="T345" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U345" t="n">
@@ -28125,7 +28125,7 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.BOCES_NAME'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="S346" t="inlineStr">
@@ -28135,7 +28135,7 @@
       </c>
       <c r="T346" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U346" t="n">
@@ -28205,7 +28205,7 @@
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.COUNTY_NAME', 'BOCES_and_N/RC.YEAR'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.COUNTY_NAME'}</t>
         </is>
       </c>
       <c r="S347" t="inlineStr">
@@ -28270,7 +28270,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil', 'BOCES_and_N/RC'}</t>
+          <t>{'BOCES_and_N/RC', 'Expenditures_per_Pupil'}</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -28290,12 +28290,12 @@
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD'}</t>
+          <t>{'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Expenditures_per_Pupil.FEDERAL_EXP', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U348" t="n">
@@ -28530,12 +28530,12 @@
       </c>
       <c r="S351" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T351" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U351" t="n">
@@ -28562,60 +28562,60 @@
         <v>15699</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L352" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M352" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N352" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals'}</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U352" t="n">
@@ -28642,35 +28642,35 @@
         <v>15680</v>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L353" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M353" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N353" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'BOCES_and_N/RC', 'Inexperienced_Teachers_and_Principals'}</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
@@ -28680,22 +28680,22 @@
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC', 'Inexperienced_Teachers_and_Principals'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'BOCES_and_N/RC.DISTRICT_NAME', 'BOCES_and_N/RC.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T353" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'BOCES_and_N/RC.SCHOOL_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U353" t="n">
@@ -28765,7 +28765,7 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW'}</t>
         </is>
       </c>
       <c r="S354" t="inlineStr">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.ENTITY_NAME'}</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S355" t="inlineStr">
@@ -28855,7 +28855,7 @@
       </c>
       <c r="T355" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.NYS_PVT_4_YR_CNT', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'Postsecondary_Enrollment.PER_NYS_PVT_4_YR', 'Postsecondary_Enrollment.YEAR'}</t>
+          <t>{'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.PER_NYS_PVT_4_YR', 'Postsecondary_Enrollment.NYS_PVT_4_YR_CNT', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR'}</t>
         </is>
       </c>
       <c r="U355" t="n">
@@ -28930,12 +28930,12 @@
       </c>
       <c r="S356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR'}</t>
+          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR'}</t>
         </is>
       </c>
       <c r="T356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Postsecondary_Enrollment.ENTITY_CD', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT'}</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_CD', 'Postsecondary_Enrollment.NYS_PUB_4_YR_CNT', 'Postsecondary_Enrollment.NYS_PUB_2_YR_CNT', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT'}</t>
         </is>
       </c>
       <c r="U356" t="n">
@@ -28995,7 +28995,7 @@
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q357" t="inlineStr">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="S357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T357" t="inlineStr">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S358" t="inlineStr">
@@ -29170,7 +29170,7 @@
       </c>
       <c r="S359" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T359" t="inlineStr">
@@ -29250,12 +29250,12 @@
       </c>
       <c r="S360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.COHORT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T360" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.ENTITY_NAME'}</t>
+          <t>{'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U360" t="n">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'Total_Cohort_Regents_Exams'}</t>
         </is>
       </c>
       <c r="Q361" t="inlineStr">
@@ -29330,12 +29330,12 @@
       </c>
       <c r="S361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Total_Cohort_Regents_Exams.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T361" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR'}</t>
+          <t>{'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U361" t="n">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR'}</t>
+          <t>{'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S363" t="inlineStr">
@@ -29495,7 +29495,7 @@
       </c>
       <c r="T363" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.INSTITUTION_ID', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.INSTITUTION_ID', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U363" t="n">
@@ -29522,60 +29522,60 @@
         <v>15648</v>
       </c>
       <c r="F364" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L364" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M364" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N364" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment'}</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.YEAR'}</t>
         </is>
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.PER_NYS_PVT_4_YR', 'Postsecondary_Enrollment.YEAR'}</t>
+          <t>{'Postsecondary_Enrollment.PER_NYS_PVT_4_YR'}</t>
         </is>
       </c>
       <c r="U364" t="n">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S367" t="inlineStr">
@@ -30125,7 +30125,7 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.City', 'tlu_Contacts.Zip_Code'}</t>
+          <t>{'tlu_Contacts.Zip_Code', 'tlu_Contacts.City'}</t>
         </is>
       </c>
       <c r="S371" t="inlineStr">
@@ -30205,7 +30205,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Start_Date', 'tbl_Events.Repeat_Sample', 'tbl_Events.Verified_by', 'tbl_Events.Station_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Verified_by', 'tbl_Events.Repeat_Sample'}</t>
         </is>
       </c>
       <c r="S372" t="inlineStr">
@@ -30295,7 +30295,7 @@
       </c>
       <c r="T373" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat.Event_ID', 'tbl_Habitat.Habitat_ID', 'tbl_Sites.Site_ID', 'tbl_Sites.SSMA_TimeStamp', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Sites.SSMA_TimeStamp', 'tbl_Habitat.Event_ID', 'tbl_Habitat.Habitat_ID', 'tbl_Observations.Event_ID', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="U373" t="n">
@@ -30375,7 +30375,7 @@
       </c>
       <c r="T374" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat.Event_ID', 'tbl_Habitat.Habitat_ID', 'tbl_Event_Details.SSMA_TimeStamp', 'tbl_Sites.SSMA_TimeStamp', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_Details_ID', 'tbl_Observations.Observation_ID', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Sites.SSMA_TimeStamp', 'tbl_Observations.Observation_ID', 'tbl_Habitat.Event_ID', 'tbl_Habitat.Habitat_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Event_Details_ID', 'tbl_Event_Details.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U374" t="n">
@@ -30482,35 +30482,35 @@
         <v>7965</v>
       </c>
       <c r="F376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -30520,12 +30520,12 @@
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID'}</t>
         </is>
       </c>
       <c r="S376" t="inlineStr">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="T376" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Scientific_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U376" t="n">
@@ -30562,35 +30562,35 @@
         <v>8051</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L377" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M377" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N377" t="n">
-        <v>0</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Habitat'}</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -30600,22 +30600,22 @@
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Habitat'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Habitat.Understory_Comp', 'tbl_Habitat.Event_ID', 'tbl_Events.Entered_by', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="S377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Habitat.Canopy_Comp'}</t>
         </is>
       </c>
       <c r="T377" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat.Event_ID', 'tbl_Events.Event_ID', 'tbl_Events.Entered_by', 'tbl_Habitat.Understory_Comp', 'tbl_Habitat.Noted_Canopy_Spp_Scientific', 'tbl_Habitat.Noted_Canopy_Spp_Common'}</t>
+          <t>{'tbl_Habitat.Noted_Canopy_Spp_Scientific', 'tbl_Habitat.Noted_Canopy_Spp_Common'}</t>
         </is>
       </c>
       <c r="U377" t="n">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Gust', 'tbl_Event_Details.Wind', 'tbl_Event_Details.Rain', 'tbl_Events.Updated_by', 'tbl_Events.Event_ID', 'tbl_Events.Entered_by', 'tbl_Event_Details.Cloud', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Cloud', 'tbl_Events.Event_ID', 'tbl_Event_Details.Wind', 'tbl_Events.Entered_by', 'tbl_Events.Updated_by', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Gust'}</t>
         </is>
       </c>
       <c r="S378" t="inlineStr">
@@ -30695,7 +30695,7 @@
       </c>
       <c r="T378" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="U378" t="n">
@@ -30775,7 +30775,7 @@
       </c>
       <c r="T379" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Detection', 'tbl_Observations.Observation_ID'}</t>
+          <t>{'tbl_Observations.Observation_ID', 'tbl_Detections.Detection'}</t>
         </is>
       </c>
       <c r="U379" t="n">
@@ -30882,35 +30882,35 @@
         <v>7989</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>0.7368421052631577</v>
       </c>
       <c r="I381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L381" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M381" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N381" t="n">
-        <v>0</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Detections', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -30920,22 +30920,22 @@
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations', 'tbl_Detections'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tbl_Detections.Distance'}</t>
         </is>
       </c>
       <c r="S381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Detections.Observation_ID', 'tbl_Observations.Observation_ID'}</t>
         </is>
       </c>
       <c r="T381" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Detections.Sort_Order', 'tbl_Observations.Species_ID', 'tbl_Detections.Distance', 'tlu_Species.Species_ID', 'tbl_Detections.Detection', 'tbl_Observations.Sort_Order'}</t>
+          <t>{'tbl_Detections.Sort_Order', 'tbl_Observations.Sort_Order', 'tbl_Detections.Detection'}</t>
         </is>
       </c>
       <c r="U381" t="n">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'xref_Species_Alternate_Names.Species_ID', 'tlu_Species.Family', 'tlu_Species.Species_ID', 'xref_Species_Alternate_Names.Alternate_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Species_ID'}</t>
         </is>
       </c>
       <c r="S382" t="inlineStr">
@@ -31150,7 +31150,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Stations_UTMs'}</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
@@ -31165,7 +31165,7 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Y_final'}</t>
+          <t>{'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_UTMs.Y_final'}</t>
         </is>
       </c>
       <c r="S384" t="inlineStr">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Position_Title', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S385" t="inlineStr">
@@ -31310,7 +31310,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S386" t="inlineStr">
@@ -31485,7 +31485,7 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tlu_Species.Habitat', 'tlu_Species.Family', 'tlu_Species.Scientific_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Family', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="S388" t="inlineStr">
@@ -31495,7 +31495,7 @@
       </c>
       <c r="T388" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat.Habitat_ID', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tbl_Habitat.Habitat_ID'}</t>
         </is>
       </c>
       <c r="U388" t="n">
@@ -31575,7 +31575,7 @@
       </c>
       <c r="T389" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Stations_UTMs.Coord_Syst'}</t>
+          <t>{'tbl_Stations_UTMs.Coord_Syst', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U389" t="n">
@@ -31630,7 +31630,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Observations'}</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -31645,7 +31645,7 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Cloud', 'tbl_Event_Details.Event_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Cloud', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S390" t="inlineStr">
@@ -31735,7 +31735,7 @@
       </c>
       <c r="T391" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Event_Details.Gust', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Gust', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="U391" t="n">
@@ -31790,7 +31790,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P392" t="inlineStr">
@@ -31815,7 +31815,7 @@
       </c>
       <c r="T392" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Locations.Site_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Locations.Site_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U392" t="n">
@@ -31842,60 +31842,60 @@
         <v>7932</v>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L393" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N393" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>{'tbl_Locations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Island'}</t>
         </is>
       </c>
       <c r="S393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="T393" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Island'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U393" t="n">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -31965,7 +31965,7 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Family', 'tlu_Species.Species_ID', 'tbl_Event_Details.Rain', 'tlu_Species.Species_Code', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tlu_Species.Family', 'tlu_Species.Species_Code', 'tbl_Event_Details.Rain', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S394" t="inlineStr">
@@ -31975,7 +31975,7 @@
       </c>
       <c r="T394" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Detection', 'tbl_Observations.Observation_ID', 'tbl_Detections.Observation_ID'}</t>
+          <t>{'tbl_Detections.Observation_ID', 'tbl_Observations.Observation_ID', 'tbl_Detections.Detection'}</t>
         </is>
       </c>
       <c r="U394" t="n">
@@ -32030,7 +32030,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations', 'xref_Event_Contacts'}</t>
+          <t>{'tbl_Observations', 'xref_Event_Contacts', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -32045,17 +32045,17 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Scientific_Name'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S395" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="T395" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Observation_ID', 'tbl_Observations.Sort_Order', 'tbl_Detections.Sort_Order', 'xref_Event_Contacts.Contact_Role', 'tbl_Detections.Detection', 'tbl_Observations.Observation_ID'}</t>
+          <t>{'tbl_Observations.Observation_ID', 'tbl_Observations.Sort_Order', 'xref_Event_Contacts.Contact_Role', 'tbl_Detections.Detection', 'tbl_Detections.Observation_ID', 'tbl_Detections.Sort_Order'}</t>
         </is>
       </c>
       <c r="U395" t="n">
@@ -32110,7 +32110,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P396" t="inlineStr">
@@ -32125,12 +32125,12 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Stations.Station', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S396" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T396" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S397" t="inlineStr">
@@ -32242,35 +32242,35 @@
         <v>7894</v>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations'}</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
@@ -32280,12 +32280,12 @@
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations.Lat_final', 'tbl_Stations.Long_final', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S398" t="inlineStr">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="T398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Stations.Long_final', 'tbl_Stations.Lat_final'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U398" t="n">
@@ -32350,7 +32350,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P399" t="inlineStr">
@@ -32370,7 +32370,7 @@
       </c>
       <c r="S399" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Station_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="T399" t="inlineStr">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Observations', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
@@ -32445,12 +32445,12 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S400" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T400" t="inlineStr">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Organization', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S401" t="inlineStr">
@@ -32590,7 +32590,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'tbl_Habitat'}</t>
+          <t>{'tbl_Habitat', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P402" t="inlineStr">
@@ -32605,12 +32605,12 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Habitat.Event_ID', 'tlu_Species.Species_ID', 'tbl_Habitat.Canopy_Height', 'tlu_Species.Scientific_Name'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tbl_Habitat.Event_ID', 'tlu_Species.Species_ID', 'tbl_Habitat.Canopy_Height'}</t>
         </is>
       </c>
       <c r="S402" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="T402" t="inlineStr">
@@ -32670,12 +32670,12 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tbl_Transect', 'tlu_Species', 'tbl_Observations', 'xref_Species_Alternate_Names', 'tbl_Events', 'tbl_Locations', 'tbl_Stations'}</t>
+          <t>{'tbl_Events', 'xref_Species_Alternate_Names', 'tlu_Species', 'tbl_Locations', 'tbl_Transect', 'tbl_Stations', 'tbl_Observations', 'tlu_Contacts'}</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="Q403" t="inlineStr">
@@ -32685,12 +32685,12 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>{'xref_Species_Alternate_Names.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tlu_Contacts.Contact_ID', 'tlu_Species.Species_ID', 'tbl_Locations.Island', 'tbl_Observations.Event_ID', 'tbl_Locations.Loc_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tbl_Transect.Transect', 'tbl_Transect.Transect_Type', 'tlu_Species.Family', 'tbl_Stations.Station', 'tbl_Events.Station_ID', 'tbl_Locations.Location_ID', 'tlu_Contacts.Last_Name', 'tbl_Stations.Lat_final', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Transect.Location_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tbl_Transect.Transect', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Events.Station_ID', 'tbl_Transect.Transect_Type', 'tbl_Stations.Lat_final', 'tlu_Contacts.Last_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Observations.Species_ID', 'tlu_Species.Scientific_Name', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Transect.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'xref_Event_Contacts.Event_ID', 'tbl_Sites.Site_ID', 'tbl_Stations.Transect_ID', 'tbl_Events.Event_Notes', 'tbl_Transect.Transect_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Locations.Site_ID'}</t>
+          <t>{'tbl_Events.Event_Notes', 'xref_Event_Contacts.Event_ID', 'tbl_Transect.Transect_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Sites.Site_Name', 'tbl_Stations.Transect_ID', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="T403" t="inlineStr">
@@ -32722,60 +32722,60 @@
         <v>8054</v>
       </c>
       <c r="F404" t="n">
-        <v>0</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="I404" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K404" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L404" t="n">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="M404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N404" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Observations', 'tlu_Species', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations', 'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tlu_Species', 'tbl_Observations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Station_ID', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Stations.Station_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Stations.Transect_ID'}</t>
         </is>
       </c>
       <c r="T404" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tbl_Locations.Island', 'tbl_Locations.Location_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U404" t="n">
@@ -32920,7 +32920,7 @@
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>{'OCRD', 'AUSR'}</t>
+          <t>{'AUSR', 'OCRD'}</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32930,12 +32930,12 @@
       </c>
       <c r="S406" t="inlineStr">
         <is>
-          <t>{'OUDP.Name', 'OUDP.Code', 'OPEX.PayeeState', 'OPEX.PayeeCity', 'OPEX.PayeeStree', 'OPEX.PayeeZip', 'OPEX.PayeeName', 'OPEX.PayCountry', 'OPEX.Department'}</t>
+          <t>{'OPEX.Department', 'OPEX.PayeeStree', 'OPEX.PayeeName', 'OPEX.PayeeZip', 'OPEX.PayeeCity', 'OPEX.PayCountry', 'OUDP.Code', 'OPEX.PayeeState', 'OUDP.Name'}</t>
         </is>
       </c>
       <c r="T406" t="inlineStr">
         <is>
-          <t>{'OCRD.UserSign', 'OCRD.CardName', 'OCRD.City', 'OCRD.Country', 'OCRD.ZipCode', 'AUSR.Country', 'AUSR.Department'}</t>
+          <t>{'AUSR.Country', 'OCRD.UserSign', 'OCRD.City', 'OCRD.Country', 'OCRD.CardName', 'AUSR.Department', 'OCRD.ZipCode'}</t>
         </is>
       </c>
       <c r="U406" t="n">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="P407" t="inlineStr">
         <is>
-          <t>{'CHO1', 'OCHO'}</t>
+          <t>{'OCHO', 'CHO1'}</t>
         </is>
       </c>
       <c r="Q407" t="inlineStr">
@@ -33080,7 +33080,7 @@
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>{'OQUT', 'OCHH'}</t>
+          <t>{'OCHH', 'OQUT'}</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33095,7 +33095,7 @@
       </c>
       <c r="T408" t="inlineStr">
         <is>
-          <t>{'OQUT.TaxOnExApF', 'OCHH.AcctNum', 'OQUT.TaxOnExApS', 'OQUT.TaxOnExAp'}</t>
+          <t>{'OQUT.TaxOnExApS', 'OQUT.TaxOnExApF', 'OCHH.AcctNum', 'OQUT.TaxOnExAp'}</t>
         </is>
       </c>
       <c r="U408" t="n">
@@ -33170,12 +33170,12 @@
       </c>
       <c r="S409" t="inlineStr">
         <is>
-          <t>{'ORCT.Address', 'ORCT.CardName', 'ORCT.CardCode', 'ORCT.CreateDate', 'ORCT.TrsfrSumFC', 'ORCT.DocCurr'}</t>
+          <t>{'ORCT.TrsfrSumFC', 'ORCT.CardCode', 'ORCT.CreateDate', 'ORCT.DocCurr', 'ORCT.Address', 'ORCT.CardName'}</t>
         </is>
       </c>
       <c r="T409" t="inlineStr">
         <is>
-          <t>{'OQUT.DpmVatFc', 'OQUT.Address', 'OQUT.DpmVat', 'OQUT.DocTotal', 'OQUT.CardCode', 'OQUT.CardName', 'OQUT.DocTotalSy', 'OQUT.DocDate'}</t>
+          <t>{'OQUT.CardCode', 'OQUT.DocTotal', 'OQUT.CardName', 'OQUT.Address', 'OQUT.DocDate', 'OQUT.DpmVat', 'OQUT.DpmVatFc', 'OQUT.DocTotalSy'}</t>
         </is>
       </c>
       <c r="U409" t="n">
@@ -33250,12 +33250,12 @@
       </c>
       <c r="S410" t="inlineStr">
         <is>
-          <t>{'RCT1.DocNum', 'ORCT.CheckSumFC', 'ORCT.DocNum', 'RCT1.AcctNum', 'ORCT.WTOnhldPst', 'RCT1.CountryCod'}</t>
+          <t>{'ORCT.CheckSumFC', 'ORCT.WTOnhldPst', 'RCT1.AcctNum', 'RCT1.CountryCod', 'ORCT.DocNum', 'RCT1.DocNum'}</t>
         </is>
       </c>
       <c r="T410" t="inlineStr">
         <is>
-          <t>{'ORCT.CheckAcct', 'ORCT.CheckSum', 'ORCT.CheckSumSy'}</t>
+          <t>{'ORCT.CheckSum', 'ORCT.CheckAcct', 'ORCT.CheckSumSy'}</t>
         </is>
       </c>
       <c r="U410" t="n">
@@ -33395,12 +33395,12 @@
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>{'ORCT', 'RCT3'}</t>
+          <t>{'RCT3', 'ORCT'}</t>
         </is>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>{'OQUT', 'OCPV'}</t>
+          <t>{'OCPV', 'OQUT'}</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="T412" t="inlineStr">
         <is>
-          <t>{'OQUT.PaidDpm', 'OQUT.PaidDpmF', 'OCPV.PaidDpm', 'OQUT.PaidSum'}</t>
+          <t>{'OCPV.PaidDpm', 'OQUT.PaidDpmF', 'OQUT.PaidDpm', 'OQUT.PaidSum'}</t>
         </is>
       </c>
       <c r="U412" t="n">
@@ -33490,7 +33490,7 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>{'OCRH.CardCode', 'OCRH.DepNum', 'OCRH.RctAbs', 'OCRH.DeposDate'}</t>
+          <t>{'OCRH.RctAbs', 'OCRH.CardCode', 'OCRH.DepNum', 'OCRH.DeposDate'}</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
@@ -33560,7 +33560,7 @@
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>{'OPOR', 'AADM', 'AITM'}</t>
+          <t>{'AITM', 'AADM', 'OPOR'}</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33570,12 +33570,12 @@
       </c>
       <c r="S414" t="inlineStr">
         <is>
-          <t>{'OCTG.ExtraDays', 'OCTG.InstNum', 'OCTG.VATFirst', 'OCTG.PymntGroup'}</t>
+          <t>{'OCTG.InstNum', 'OCTG.ExtraDays', 'OCTG.VATFirst', 'OCTG.PymntGroup'}</t>
         </is>
       </c>
       <c r="T414" t="inlineStr">
         <is>
-          <t>{'OPOR.ExtraDays', 'AADM.Code', 'AITM.Number', 'OPOR.Installmnt', 'OPOR.DocType'}</t>
+          <t>{'OPOR.DocType', 'AADM.Code', 'AITM.Number', 'OPOR.Installmnt', 'OPOR.ExtraDays'}</t>
         </is>
       </c>
       <c r="U414" t="n">
@@ -33635,7 +33635,7 @@
       </c>
       <c r="P415" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OCRG'}</t>
+          <t>{'OCRG', 'OCRD'}</t>
         </is>
       </c>
       <c r="Q415" t="inlineStr">
@@ -33650,7 +33650,7 @@
       </c>
       <c r="S415" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupCode', 'OCRG.GroupName', 'OCRD.GroupCode'}</t>
+          <t>{'OCRG.GroupCode', 'OCRD.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="T415" t="inlineStr">
@@ -33720,7 +33720,7 @@
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>{'OSTS', 'OOST'}</t>
+          <t>{'OOST', 'OSTS'}</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33730,7 +33730,7 @@
       </c>
       <c r="S416" t="inlineStr">
         <is>
-          <t>{'OCPR.Address', 'OCPR.Cellolar', 'OCPR.E_MailL', 'OCPR.Position', 'OCPR.Name'}</t>
+          <t>{'OCPR.Position', 'OCPR.Cellolar', 'OCPR.E_MailL', 'OCPR.Name', 'OCPR.Address'}</t>
         </is>
       </c>
       <c r="T416" t="inlineStr">
@@ -33800,7 +33800,7 @@
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>{'ORTT', 'WTR1', 'AUSR', 'AHEM', 'OUSR'}</t>
+          <t>{'WTR1', 'ORTT', 'AHEM', 'OUSR', 'AUSR'}</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33810,12 +33810,12 @@
       </c>
       <c r="S417" t="inlineStr">
         <is>
-          <t>{'OSLP.SlpName', 'OSLP.Commission'}</t>
+          <t>{'OSLP.Commission', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="T417" t="inlineStr">
         <is>
-          <t>{'ORTT.Rate', 'AHEM.empID', 'WTR1.SlpCode', 'AUSR.U_NAME', 'AHEM.firstName', 'ORTT.UserSign', 'WTR1.Commission', 'AHEM.lastName', 'OUSR.U_NAME'}</t>
+          <t>{'AHEM.lastName', 'AHEM.empID', 'ORTT.Rate', 'WTR1.SlpCode', 'AHEM.firstName', 'AUSR.U_NAME', 'OUSR.U_NAME', 'WTR1.Commission', 'ORTT.UserSign'}</t>
         </is>
       </c>
       <c r="U417" t="n">
@@ -33890,12 +33890,12 @@
       </c>
       <c r="S418" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupName', 'OSLP.GroupCode', 'OCOG.GroupCode'}</t>
+          <t>{'OSLP.GroupCode', 'OCOG.GroupName', 'OCOG.GroupCode'}</t>
         </is>
       </c>
       <c r="T418" t="inlineStr">
         <is>
-          <t>{'AUSR.DfltsGroup', 'OSLP.Commission', 'OSLP.SlpCode', 'OSLP.UserSign'}</t>
+          <t>{'OSLP.UserSign', 'OSLP.SlpCode', 'OSLP.Commission', 'AUSR.DfltsGroup'}</t>
         </is>
       </c>
       <c r="U418" t="n">
@@ -33955,7 +33955,7 @@
       </c>
       <c r="P419" t="inlineStr">
         <is>
-          <t>{'OSLP', 'OCOG'}</t>
+          <t>{'OCOG', 'OSLP'}</t>
         </is>
       </c>
       <c r="Q419" t="inlineStr">
@@ -33970,12 +33970,12 @@
       </c>
       <c r="S419" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupName', 'OSLP.SlpName', 'OSLP.Email', 'OSLP.Mobil', 'OCOG.GroupCode', 'OSLP.GroupCode'}</t>
+          <t>{'OSLP.Mobil', 'OSLP.Email', 'OCOG.GroupCode', 'OSLP.GroupCode', 'OSLP.SlpName', 'OCOG.GroupName'}</t>
         </is>
       </c>
       <c r="T419" t="inlineStr">
         <is>
-          <t>{'AUSR.E_Mail', 'AUSR.GROUPS'}</t>
+          <t>{'AUSR.GROUPS', 'AUSR.E_Mail'}</t>
         </is>
       </c>
       <c r="U419" t="n">
@@ -34055,7 +34055,7 @@
       </c>
       <c r="T420" t="inlineStr">
         <is>
-          <t>{'OADM.Code', 'OCRD.DdctPrcnt'}</t>
+          <t>{'OCRD.DdctPrcnt', 'OADM.Code'}</t>
         </is>
       </c>
       <c r="U420" t="n">
@@ -34120,7 +34120,7 @@
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>{'AHEM', 'OACT'}</t>
+          <t>{'OACT', 'AHEM'}</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34130,12 +34130,12 @@
       </c>
       <c r="S421" t="inlineStr">
         <is>
-          <t>{'OCLG.Details', 'OCLG.CreateDate', 'OCLG.ClgCode', 'OCLG.CntctDate', 'OCLG.CntctTime'}</t>
+          <t>{'OCLG.CntctDate', 'OCLG.CreateDate', 'OCLG.Details', 'OCLG.ClgCode', 'OCLG.CntctTime'}</t>
         </is>
       </c>
       <c r="T421" t="inlineStr">
         <is>
-          <t>{'AHEM.empID', 'AHEM.remark', 'OACT.Details', 'AHEM.startDate'}</t>
+          <t>{'AHEM.remark', 'OACT.Details', 'AHEM.empID', 'AHEM.startDate'}</t>
         </is>
       </c>
       <c r="U421" t="n">
@@ -34195,12 +34195,12 @@
       </c>
       <c r="P422" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OCRB'}</t>
+          <t>{'OCRB', 'OCRD'}</t>
         </is>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>{'ACRB', 'USR6', 'OACR', 'AUSR', 'OUSR'}</t>
+          <t>{'OACR', 'OUSR', 'ACRB', 'AUSR', 'USR6'}</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34210,12 +34210,12 @@
       </c>
       <c r="S422" t="inlineStr">
         <is>
-          <t>{'OCRD.CardCode', 'OCRD.CardName', 'OCRB.Account', 'OCRD.City', 'OCRB.CardCode', 'OCRD.Country', 'OCRB.BankCode', 'OCRB.Branch', 'OCRD.BankCode', 'OCRB.City', 'OCRB.Country'}</t>
+          <t>{'OCRB.BankCode', 'OCRB.CardCode', 'OCRB.Country', 'OCRD.CardCode', 'OCRD.BankCode', 'OCRB.Branch', 'OCRD.City', 'OCRB.City', 'OCRD.Country', 'OCRD.CardName', 'OCRB.Account'}</t>
         </is>
       </c>
       <c r="T422" t="inlineStr">
         <is>
-          <t>{'ACRB.Country', 'OACR.Name', 'USR6.BPLId', 'ACRB.City', 'ACRB.Branch', 'AUSR.Branch', 'OACR.Code', 'AUSR.U_NAME', 'OUSR.Country', 'ACRB.Account', 'AUSR.Country', 'OUSR.U_NAME', 'ACRB.BankCode', 'OUSR.Branch'}</t>
+          <t>{'OUSR.Country', 'AUSR.Country', 'OUSR.Branch', 'ACRB.Account', 'OACR.Code', 'ACRB.BankCode', 'ACRB.City', 'AUSR.U_NAME', 'ACRB.Country', 'ACRB.Branch', 'OUSR.U_NAME', 'OACR.Name', 'AUSR.Branch', 'USR6.BPLId'}</t>
         </is>
       </c>
       <c r="U422" t="n">
@@ -34355,12 +34355,12 @@
       </c>
       <c r="P424" t="inlineStr">
         <is>
-          <t>{'TGG1', 'OTGG'}</t>
+          <t>{'OTGG', 'TGG1'}</t>
         </is>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>{'AUSR', 'OCRD', 'ACRD'}</t>
+          <t>{'ACRD', 'AUSR', 'OCRD'}</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34370,12 +34370,12 @@
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t>{'TGG1.E_Mail', 'TGG1.Position', 'TGG1.LicTradNum', 'TGG1.TargetCode', 'OTGG.TargetType', 'OTGG.TargetCode'}</t>
+          <t>{'TGG1.Position', 'TGG1.E_Mail', 'TGG1.LicTradNum', 'TGG1.TargetCode', 'OTGG.TargetType', 'OTGG.TargetCode'}</t>
         </is>
       </c>
       <c r="T424" t="inlineStr">
         <is>
-          <t>{'OCRD.CardCode', 'ACRD.UserSign', 'AUSR.objType', 'AUSR.U_NAME', 'OCRD.NINum', 'ACRD.CardCode'}</t>
+          <t>{'ACRD.UserSign', 'OCRD.CardCode', 'AUSR.objType', 'AUSR.U_NAME', 'OCRD.NINum', 'ACRD.CardCode'}</t>
         </is>
       </c>
       <c r="U424" t="n">
@@ -34445,7 +34445,7 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>{'OACT.AcctCode', 'OACT.AcctName'}</t>
+          <t>{'OACT.AcctName', 'OACT.AcctCode'}</t>
         </is>
       </c>
       <c r="S425" t="inlineStr">
@@ -34520,7 +34520,7 @@
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>{'RDR1', 'CASE', 'RDR22', 'WTR1'}</t>
+          <t>{'WTR1', 'CASE', 'RDR22', 'RDR1'}</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34530,12 +34530,12 @@
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t>{'JDT1.DueDate', 'JDT1.Debit', 'JDT1.Credit'}</t>
+          <t>{'JDT1.Debit', 'JDT1.Credit', 'JDT1.DueDate'}</t>
         </is>
       </c>
       <c r="T426" t="inlineStr">
         <is>
-          <t>{'RDR1.DocDate', 'WTR1.DocDate', 'RDR22.Total', 'CASE.CreateDate'}</t>
+          <t>{'CASE.CreateDate', 'RDR22.Total', 'WTR1.DocDate', 'RDR1.DocDate'}</t>
         </is>
       </c>
       <c r="U426" t="n">
@@ -34610,12 +34610,12 @@
       </c>
       <c r="S427" t="inlineStr">
         <is>
-          <t>{'OACT.AcctCode', 'OACT.AcctName', 'BGT1.CredLTotal', 'BGT1.AcctCode', 'BGT1.DebLTotal'}</t>
+          <t>{'OACT.AcctCode', 'BGT1.DebLTotal', 'BGT1.AcctCode', 'BGT1.CredLTotal', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="T427" t="inlineStr">
         <is>
-          <t>{'AACT.AcctName', 'AACT.Budget'}</t>
+          <t>{'AACT.Budget', 'AACT.AcctName'}</t>
         </is>
       </c>
       <c r="U427" t="n">
@@ -34685,7 +34685,7 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>{'OACT.CurrTotal', 'OACT.Category', 'OACT.AcctName'}</t>
+          <t>{'OACT.Category', 'OACT.CurrTotal', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="S428" t="inlineStr">
@@ -34760,7 +34760,7 @@
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>{'OQUT', 'RIN12', 'RIN1'}</t>
+          <t>{'RIN12', 'OQUT', 'RIN1'}</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34770,12 +34770,12 @@
       </c>
       <c r="S429" t="inlineStr">
         <is>
-          <t>{'TAX1.VatPercent', 'TAX1.TaxCode', 'TAX1.AbsEntry', 'TAX1.VatSum', 'OTAX.SrcObjAbs', 'OTAX.AbsEntry'}</t>
+          <t>{'TAX1.VatPercent', 'OTAX.AbsEntry', 'TAX1.VatSum', 'TAX1.AbsEntry', 'TAX1.TaxCode', 'OTAX.SrcObjAbs'}</t>
         </is>
       </c>
       <c r="T429" t="inlineStr">
         <is>
-          <t>{'RIN12.Vat', 'RIN1.VatSum', 'RIN1.VatPrcnt', 'RIN1.ItemCode', 'OQUT.ObjType', 'OQUT.VatSum', 'RIN1.TaxCode', 'RIN1.ObjType'}</t>
+          <t>{'OQUT.VatSum', 'RIN1.VatPrcnt', 'RIN1.VatSum', 'RIN12.Vat', 'RIN1.TaxCode', 'OQUT.ObjType', 'RIN1.ObjType', 'RIN1.ItemCode'}</t>
         </is>
       </c>
       <c r="U429" t="n">
@@ -34855,7 +34855,7 @@
       </c>
       <c r="T430" t="inlineStr">
         <is>
-          <t>{'ARTT.Rate', 'ARTT.DataSource', 'ARTT.Currency'}</t>
+          <t>{'ARTT.Currency', 'ARTT.DataSource', 'ARTT.Rate'}</t>
         </is>
       </c>
       <c r="U430" t="n">
@@ -35000,7 +35000,7 @@
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>{'ACFP', 'ACR1'}</t>
+          <t>{'ACR1', 'ACFP'}</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -35015,7 +35015,7 @@
       </c>
       <c r="T432" t="inlineStr">
         <is>
-          <t>{'ACFP.UserSign', 'ACFP.Descrip', 'ACR1.UserSign'}</t>
+          <t>{'ACFP.Descrip', 'ACR1.UserSign', 'ACFP.UserSign'}</t>
         </is>
       </c>
       <c r="U432" t="n">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>{'OFRC', 'FRC1'}</t>
+          <t>{'FRC1', 'OFRC'}</t>
         </is>
       </c>
       <c r="Q433" t="inlineStr">
@@ -35090,12 +35090,12 @@
       </c>
       <c r="S433" t="inlineStr">
         <is>
-          <t>{'FRC1.CalcMethod', 'FRC1.CalMethod3', 'OFRC.CatId', 'OFRC.Name', 'FRC1.CatId', 'FRC1.CFWId', 'FRC1.CalMethod2'}</t>
+          <t>{'FRC1.CFWId', 'FRC1.CalMethod2', 'FRC1.CalcMethod', 'FRC1.CalMethod3', 'FRC1.CatId', 'OFRC.Name', 'OFRC.CatId'}</t>
         </is>
       </c>
       <c r="T433" t="inlineStr">
         <is>
-          <t>{'OFPR.Category', 'OFPR.Name'}</t>
+          <t>{'OFPR.Name', 'OFPR.Category'}</t>
         </is>
       </c>
       <c r="U433" t="n">
@@ -35165,7 +35165,7 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>{'OPRJ.PrjName', 'OPRJ.ValidFrom'}</t>
+          <t>{'OPRJ.ValidFrom', 'OPRJ.PrjName'}</t>
         </is>
       </c>
       <c r="S434" t="inlineStr">
@@ -35240,7 +35240,7 @@
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>{'APM2', 'AADM'}</t>
+          <t>{'AADM', 'APM2'}</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35250,12 +35250,12 @@
       </c>
       <c r="S435" t="inlineStr">
         <is>
-          <t>{'PMG1.DSCRIPTION', 'PMG1.EXPCOSTS', 'PMG1.START'}</t>
+          <t>{'PMG1.START', 'PMG1.EXPCOSTS', 'PMG1.DSCRIPTION'}</t>
         </is>
       </c>
       <c r="T435" t="inlineStr">
         <is>
-          <t>{'APM2.StageID', 'AADM.StartFrom'}</t>
+          <t>{'AADM.StartFrom', 'APM2.StageID'}</t>
         </is>
       </c>
       <c r="U435" t="n">
@@ -35395,7 +35395,7 @@
       </c>
       <c r="P437" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="Q437" t="inlineStr">
@@ -35410,12 +35410,12 @@
       </c>
       <c r="S437" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'ODAB.DashbdCode', 'DAB1.DsbEntry'}</t>
+          <t>{'DAB1.DsbEntry', 'ODAB.DashbdCode', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="T437" t="inlineStr">
         <is>
-          <t>{'OQUT.DocEntry', 'OUTB.TableName', 'OQUT.DocNum'}</t>
+          <t>{'OQUT.DocNum', 'OUTB.TableName', 'OQUT.DocEntry'}</t>
         </is>
       </c>
       <c r="U437" t="n">
@@ -35475,7 +35475,7 @@
       </c>
       <c r="P438" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="Q438" t="inlineStr">
@@ -35490,7 +35490,7 @@
       </c>
       <c r="S438" t="inlineStr">
         <is>
-          <t>{'DAB1.QryName', 'DAB1.DsbEntry', 'ODAB.Status', 'DAB1.QryCtgry', 'ODAB.DashbdPath', 'ODAB.DashbdName', 'ODAB.AbsEntry'}</t>
+          <t>{'ODAB.Status', 'ODAB.DashbdName', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdPath', 'DAB1.DsbEntry', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="T438" t="inlineStr">
@@ -35570,7 +35570,7 @@
       </c>
       <c r="S439" t="inlineStr">
         <is>
-          <t>{'OKPS.KpsName', 'OKPS.KpsType', 'OKPS.KpsCode'}</t>
+          <t>{'OKPS.KpsName', 'OKPS.KpsCode', 'OKPS.KpsType'}</t>
         </is>
       </c>
       <c r="T439" t="inlineStr">
@@ -35635,7 +35635,7 @@
       </c>
       <c r="P440" t="inlineStr">
         <is>
-          <t>{'ORSC', 'RSC4'}</t>
+          <t>{'RSC4', 'ORSC'}</t>
         </is>
       </c>
       <c r="Q440" t="inlineStr">
@@ -35650,12 +35650,12 @@
       </c>
       <c r="S440" t="inlineStr">
         <is>
-          <t>{'RSC4.ResCode', 'ORSC.ResCode', 'ORSC.StdCost1', 'RSC4.EmpID', 'ORSC.ResName', 'ORSC.ResGrpCod', 'ORSC.ResType'}</t>
+          <t>{'ORSC.ResType', 'ORSC.StdCost1', 'ORSC.ResGrpCod', 'ORSC.ResName', 'ORSC.ResCode', 'RSC4.ResCode', 'RSC4.EmpID'}</t>
         </is>
       </c>
       <c r="T440" t="inlineStr">
         <is>
-          <t>{'ORSB.CostVal1', 'ORSB.ResGrpCod', 'ORSB.ResType'}</t>
+          <t>{'ORSB.ResGrpCod', 'ORSB.CostVal1', 'ORSB.ResType'}</t>
         </is>
       </c>
       <c r="U440" t="n">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>{'ARSC', 'WTR16', 'ARSC6', 'WTR1'}</t>
+          <t>{'WTR1', 'ARSC6', 'ARSC', 'WTR16'}</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35730,12 +35730,12 @@
       </c>
       <c r="S441" t="inlineStr">
         <is>
-          <t>{'ORSC.ResCode', 'ORSC.ResName'}</t>
+          <t>{'ORSC.ResName', 'ORSC.ResCode'}</t>
         </is>
       </c>
       <c r="T441" t="inlineStr">
         <is>
-          <t>{'ARSC6.WeekDay', 'WTR1.Factor1', 'ARSC.ResCode', 'WTR1.LineType', 'ARSC6.CapFactor1', 'ARSC6.ResCode', 'WTR1.ItemCode', 'WTR16.ItemCode'}</t>
+          <t>{'WTR16.ItemCode', 'ARSC6.ResCode', 'WTR1.LineType', 'ARSC6.WeekDay', 'ARSC6.CapFactor1', 'WTR1.Factor1', 'WTR1.ItemCode', 'ARSC.ResCode'}</t>
         </is>
       </c>
       <c r="U441" t="n">
@@ -35800,7 +35800,7 @@
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>{'AADM', 'ODRC', 'OPRQ'}</t>
+          <t>{'OPRQ', 'AADM', 'ODRC'}</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35810,12 +35810,12 @@
       </c>
       <c r="S442" t="inlineStr">
         <is>
-          <t>{'PMG2.AbsEntry', 'PMG2.REMARKS', 'OPMG.AbsEntry', 'PMG2.SOLUTION', 'OPMG.NAME'}</t>
+          <t>{'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.REMARKS', 'PMG2.AbsEntry'}</t>
         </is>
       </c>
       <c r="T442" t="inlineStr">
         <is>
-          <t>{'ODRC.Active', 'ODRC.UserSign', 'OPRQ.DocEntry', 'ODRC.UserSign2', 'AADM.UserSign', 'AADM.UserSign2', 'OPRQ.Project'}</t>
+          <t>{'AADM.UserSign', 'OPRQ.Project', 'OPRQ.DocEntry', 'ODRC.UserSign', 'ODRC.Active', 'ODRC.UserSign2', 'AADM.UserSign2'}</t>
         </is>
       </c>
       <c r="U442" t="n">
@@ -35890,7 +35890,7 @@
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>{'CPT1._Bottom', 'OCPT.AbsEntry', 'OCPT._Left', 'CPT1._Top', 'OCPT._Top', 'CPT1.AbsEntry', 'CPT1._Left', 'CPT1._Right', 'OCPT.Name'}</t>
+          <t>{'CPT1._Left', 'CPT1._Bottom', 'CPT1.AbsEntry', 'OCPT.AbsEntry', 'CPT1._Right', 'OCPT.Name', 'OCPT._Left', 'CPT1._Top', 'OCPT._Top'}</t>
         </is>
       </c>
       <c r="T443" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="P445" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM', 'OHTM'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q445" t="inlineStr">
@@ -36050,7 +36050,7 @@
       </c>
       <c r="S445" t="inlineStr">
         <is>
-          <t>{'HTM1.teamID', 'OHTM.teamID', 'OHEM.empID', 'OHEM.lastName', 'OHEM.firstName', 'HTM1.empID', 'OHTM.name'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.lastName', 'OHEM.empID', 'OHEM.firstName', 'OHTM.teamID', 'HTM1.teamID'}</t>
         </is>
       </c>
       <c r="T445" t="inlineStr">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="P447" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM', 'OHTM'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q447" t="inlineStr">
@@ -36210,7 +36210,7 @@
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t>{'HTM1.teamID', 'OHTM.teamID', 'OHEM.empID', 'OHEM.salary', 'HTM1.empID', 'OHTM.name'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.salary', 'OHEM.empID', 'OHTM.teamID', 'HTM1.teamID'}</t>
         </is>
       </c>
       <c r="T447" t="inlineStr">
@@ -36290,12 +36290,12 @@
       </c>
       <c r="S448" t="inlineStr">
         <is>
-          <t>{'OHEM.homeTel', 'OHEM.lastName', 'OHEM.pager', 'OHEM.officeTel', 'OHEM.firstName', 'OHEM.mobile'}</t>
+          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHEM.pager', 'OHEM.officeTel', 'OHEM.mobile', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="T448" t="inlineStr">
         <is>
-          <t>{'AHEM.mobile', 'AHEM.email', 'AHEM.firstName', 'AHEM.homeTel', 'AHEM.lastName', 'AHEM.pager'}</t>
+          <t>{'AHEM.lastName', 'AHEM.mobile', 'AHEM.homeTel', 'AHEM.firstName', 'AHEM.email', 'AHEM.pager'}</t>
         </is>
       </c>
       <c r="U448" t="n">
@@ -36450,12 +36450,12 @@
       </c>
       <c r="S450" t="inlineStr">
         <is>
-          <t>{'OHEM.nChildren', 'OHEM.type', 'OHTY.name', 'OHEM.lastName', 'OHTY.typeID', 'OHEM.StatusOfE'}</t>
+          <t>{'OHEM.lastName', 'OHEM.StatusOfE', 'OHEM.type', 'OHTY.name', 'OHEM.nChildren', 'OHTY.typeID'}</t>
         </is>
       </c>
       <c r="T450" t="inlineStr">
         <is>
-          <t>{'AHEM.lastName', 'AHEM.nChildren', 'AHEM.type'}</t>
+          <t>{'AHEM.nChildren', 'AHEM.lastName', 'AHEM.type'}</t>
         </is>
       </c>
       <c r="U450" t="n">
@@ -36610,12 +36610,12 @@
       </c>
       <c r="S452" t="inlineStr">
         <is>
-          <t>{'OHEM.HeaInsName', 'OHEM.empID', 'OHEM.HeaInsType', 'OHEM.lastName', 'OHEM.HeaInsCode'}</t>
+          <t>{'OHEM.HeaInsCode', 'OHEM.HeaInsName', 'OHEM.lastName', 'OHEM.HeaInsType', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="T452" t="inlineStr">
         <is>
-          <t>{'AHEM.empID', 'AHEM.HeaInsName', 'AHEM.HeaInsType', 'AHEM.HeaInsCode', 'AHEM.lastName', 'AHEM.Code'}</t>
+          <t>{'AHEM.lastName', 'AHEM.empID', 'AHEM.Code', 'AHEM.HeaInsType', 'AHEM.HeaInsName', 'AHEM.HeaInsCode'}</t>
         </is>
       </c>
       <c r="U452" t="n">
@@ -36755,12 +36755,12 @@
       </c>
       <c r="P454" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM', 'OHTM'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>{'AHEM', 'AUSR'}</t>
+          <t>{'AUSR', 'AHEM'}</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36770,12 +36770,12 @@
       </c>
       <c r="S454" t="inlineStr">
         <is>
-          <t>{'HTM1.teamID', 'OHEM.VacCurYear', 'OHTM.teamID', 'OHEM.empID', 'HTM1.empID', 'OHTM.name'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID', 'HTM1.teamID', 'OHEM.VacCurYear'}</t>
         </is>
       </c>
       <c r="T454" t="inlineStr">
         <is>
-          <t>{'AUSR.GENDER', 'AUSR.U_NAME', 'AHEM.UserSign', 'AUSR.Department', 'AHEM.VacPreYear'}</t>
+          <t>{'AHEM.VacPreYear', 'AUSR.GENDER', 'AUSR.U_NAME', 'AUSR.Department', 'AHEM.UserSign'}</t>
         </is>
       </c>
       <c r="U454" t="n">
@@ -36840,7 +36840,7 @@
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>{'AHE6', 'OSLP'}</t>
+          <t>{'OSLP', 'AHE6'}</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36850,12 +36850,12 @@
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t>{'OHEM.CPF', 'HTM1.teamID', 'OHEM.empID', 'HTM1.empID'}</t>
+          <t>{'OHEM.empID', 'OHEM.CPF', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T455" t="inlineStr">
         <is>
-          <t>{'OSLP.EmpID', 'AHE6.empID'}</t>
+          <t>{'AHE6.empID', 'OSLP.EmpID'}</t>
         </is>
       </c>
       <c r="U455" t="n">
@@ -36930,12 +36930,12 @@
       </c>
       <c r="S456" t="inlineStr">
         <is>
-          <t>{'OHEM.TaxClass', 'OHEM.type', 'OHTY.name', 'OHTY.typeID', 'OHEM.MunKey', 'OHEM.InTaxLiabi'}</t>
+          <t>{'OHEM.type', 'OHEM.TaxClass', 'OHTY.name', 'OHEM.MunKey', 'OHTY.typeID', 'OHEM.InTaxLiabi'}</t>
         </is>
       </c>
       <c r="T456" t="inlineStr">
         <is>
-          <t>{'AHEM.TaxClass', 'AHEM.type', 'AHEM.BPLId', 'AHEM.InTaxLiabi'}</t>
+          <t>{'AHEM.BPLId', 'AHEM.type', 'AHEM.TaxClass', 'AHEM.InTaxLiabi'}</t>
         </is>
       </c>
       <c r="U456" t="n">
@@ -36995,12 +36995,12 @@
       </c>
       <c r="P457" t="inlineStr">
         <is>
-          <t>{'OHEM', 'HEM6'}</t>
+          <t>{'HEM6', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>{'HEM1', 'HEM4'}</t>
+          <t>{'HEM4', 'HEM1'}</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -37010,7 +37010,7 @@
       </c>
       <c r="S457" t="inlineStr">
         <is>
-          <t>{'OHEM.salary', 'HEM6.roleID', 'HEM6.empID', 'OHEM.empID'}</t>
+          <t>{'HEM6.empID', 'OHEM.salary', 'OHEM.empID', 'HEM6.roleID'}</t>
         </is>
       </c>
       <c r="T457" t="inlineStr">
@@ -37090,12 +37090,12 @@
       </c>
       <c r="S458" t="inlineStr">
         <is>
-          <t>{'OHEM.brthCountr', 'OHEM.homeCity', 'OHEM.homeCounty', 'OHEM.birthDate', 'OHEM.homeCountr', 'OHEM.jobTitle'}</t>
+          <t>{'OHEM.homeCountr', 'OHEM.jobTitle', 'OHEM.brthCountr', 'OHEM.homeCounty', 'OHEM.homeCity', 'OHEM.birthDate'}</t>
         </is>
       </c>
       <c r="T458" t="inlineStr">
         <is>
-          <t>{'AHEM.brthCountr', 'AHEM.homeCountr', 'AHEM.birthDate', 'AHEM.homeCity', 'AHEM.firstName', 'AHEM.homeCounty', 'AHEM.lastName', 'AHEM.jobTitle'}</t>
+          <t>{'AHEM.lastName', 'AHEM.jobTitle', 'AHEM.brthCountr', 'AHEM.homeCountr', 'AHEM.homeCounty', 'AHEM.birthDate', 'AHEM.firstName', 'AHEM.homeCity'}</t>
         </is>
       </c>
       <c r="U458" t="n">
@@ -37170,7 +37170,7 @@
       </c>
       <c r="S459" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.passportNo', 'OHEM.citizenshp', 'OHEM.StatusOfP'}</t>
+          <t>{'OHEM.lastName', 'OHEM.StatusOfP', 'OHEM.passportNo', 'OHEM.citizenshp'}</t>
         </is>
       </c>
       <c r="T459" t="inlineStr">
@@ -37250,12 +37250,12 @@
       </c>
       <c r="S460" t="inlineStr">
         <is>
-          <t>{'OHEM.emplCost', 'OHEM.homeCity', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.workCity'}</t>
+          <t>{'OHEM.emplCost', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.homeCity', 'OHEM.workCity'}</t>
         </is>
       </c>
       <c r="T460" t="inlineStr">
         <is>
-          <t>{'AHEM.homeCity', 'AHEM.emplCost', 'AHEM.firstName', 'AHEM.workCity', 'AHEM.lastName'}</t>
+          <t>{'AHEM.lastName', 'AHEM.firstName', 'AHEM.workCity', 'AHEM.emplCost', 'AHEM.homeCity'}</t>
         </is>
       </c>
       <c r="U460" t="n">
@@ -37315,12 +37315,12 @@
       </c>
       <c r="P461" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM', 'OHTM'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>{'AHE6', 'AHEM', 'OUSR'}</t>
+          <t>{'OUSR', 'AHEM', 'AHE6'}</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37330,12 +37330,12 @@
       </c>
       <c r="S461" t="inlineStr">
         <is>
-          <t>{'HTM1.teamID', 'OHEM.homeCity', 'OHTM.teamID', 'OHEM.empID', 'OHEM.homeTel', 'OHEM.officeTel', 'HTM1.empID', 'OHTM.name', 'OHEM.workCity', 'OHEM.MunKey'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.empID', 'OHEM.MunKey', 'OHEM.homeCity', 'OHTM.teamID', 'OHEM.officeTel', 'HTM1.teamID', 'OHEM.workCity', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="T461" t="inlineStr">
         <is>
-          <t>{'AHE6.EncryptIV', 'AHEM.homeCity', 'AHE6.empID', 'AHEM.salesPrson', 'OUSR.Address', 'AHE6.LogInstanc', 'AHEM.workCity', 'AHEM.officeTel', 'AHE6.line'}</t>
+          <t>{'AHE6.LogInstanc', 'OUSR.Address', 'AHE6.line', 'AHEM.salesPrson', 'AHEM.officeTel', 'AHE6.EncryptIV', 'AHE6.empID', 'AHEM.workCity', 'AHEM.homeCity'}</t>
         </is>
       </c>
       <c r="U461" t="n">
@@ -37395,7 +37395,7 @@
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM', 'OHTM'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q462" t="inlineStr">
@@ -37410,12 +37410,12 @@
       </c>
       <c r="S462" t="inlineStr">
         <is>
-          <t>{'HTM1.teamID', 'OHTM.teamID', 'OHEM.empID', 'OHEM.StatusOfP', 'HTM1.empID', 'OHTM.name', 'OHEM.StatusOfE', 'OHEM.StreetNoH', 'OHEM.StreetNoW'}</t>
+          <t>{'OHTM.name', 'OHEM.StatusOfP', 'HTM1.empID', 'OHEM.StatusOfE', 'OHEM.empID', 'OHTM.teamID', 'OHEM.StreetNoH', 'HTM1.teamID', 'OHEM.StreetNoW'}</t>
         </is>
       </c>
       <c r="T462" t="inlineStr">
         <is>
-          <t>{'AHEM.workStreet', 'AHEM.homeStreet', 'AHEM.empID'}</t>
+          <t>{'AHEM.empID', 'AHEM.homeStreet', 'AHEM.workStreet'}</t>
         </is>
       </c>
       <c r="U462" t="n">
@@ -37480,7 +37480,7 @@
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>{'AHEM', 'AUSR'}</t>
+          <t>{'AUSR', 'AHEM'}</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -37490,12 +37490,12 @@
       </c>
       <c r="S463" t="inlineStr">
         <is>
-          <t>{'OHEM.TaxOName', 'OHEM.AddiCurr', 'OHEM.PymMeth', 'OHEM.ExemptCurr'}</t>
+          <t>{'OHEM.ExemptCurr', 'OHEM.PymMeth', 'OHEM.TaxOName', 'OHEM.AddiCurr'}</t>
         </is>
       </c>
       <c r="T463" t="inlineStr">
         <is>
-          <t>{'AHEM.empID', 'AHEM.ExemptCurr', 'AHEM.AddiCurr', 'AUSR.U_NAME', 'AHEM.TaxOName'}</t>
+          <t>{'AHEM.empID', 'AHEM.AddiCurr', 'AHEM.TaxOName', 'AHEM.ExemptCurr', 'AUSR.U_NAME'}</t>
         </is>
       </c>
       <c r="U463" t="n">
@@ -37570,12 +37570,12 @@
       </c>
       <c r="S464" t="inlineStr">
         <is>
-          <t>{'OHEM.homeStreet', 'OHEM.homeBlock', 'OHEM.lastName', 'OHEM.martStatus', 'OHEM.homeZip', 'OHEM.homeState'}</t>
+          <t>{'OHEM.lastName', 'OHEM.martStatus', 'OHEM.homeZip', 'OHEM.homeStreet', 'OHEM.homeBlock', 'OHEM.homeState'}</t>
         </is>
       </c>
       <c r="T464" t="inlineStr">
         <is>
-          <t>{'AHEM.homeStreet', 'AHEM.homeState', 'AHEM.homeZip', 'AHEM.homeBlock'}</t>
+          <t>{'AHEM.homeZip', 'AHEM.homeStreet', 'AHEM.homeState', 'AHEM.homeBlock'}</t>
         </is>
       </c>
       <c r="U464" t="n">
@@ -37645,7 +37645,7 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>{'OITM.OnOrder', 'OITM.OnHand', 'OITM.ItemName', 'OITM.IsCommited'}</t>
+          <t>{'OITM.OnOrder', 'OITM.ItemName', 'OITM.IsCommited', 'OITM.OnHand'}</t>
         </is>
       </c>
       <c r="S465" t="inlineStr">
@@ -37655,7 +37655,7 @@
       </c>
       <c r="T465" t="inlineStr">
         <is>
-          <t>{'SITM.ItemName', 'SITM.OnOrder', 'SITM.IsCommited', 'SITM.OnHand'}</t>
+          <t>{'SITM.OnHand', 'SITM.IsCommited', 'SITM.OnOrder', 'SITM.ItemName'}</t>
         </is>
       </c>
       <c r="U465" t="n">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="P466" t="inlineStr">
         <is>
-          <t>{'ITM1', 'OITM'}</t>
+          <t>{'OITM', 'ITM1'}</t>
         </is>
       </c>
       <c r="Q466" t="inlineStr">
@@ -37730,12 +37730,12 @@
       </c>
       <c r="S466" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM1.Price', 'ITM1.ItemCode', 'OITM.IsCommited'}</t>
+          <t>{'OITM.IsCommited', 'OITM.ItemName', 'OITM.ItemCode', 'ITM1.ItemCode', 'ITM1.Price'}</t>
         </is>
       </c>
       <c r="T466" t="inlineStr">
         <is>
-          <t>{'INV1.Price', 'INV1.ItemCode', 'INV1.Quantity'}</t>
+          <t>{'INV1.ItemCode', 'INV1.Quantity', 'INV1.Price'}</t>
         </is>
       </c>
       <c r="U466" t="n">
@@ -37810,12 +37810,12 @@
       </c>
       <c r="S467" t="inlineStr">
         <is>
-          <t>{'ITM2.VendorCode', 'OITM.ItemName', 'ITM2.ItemCode', 'OITM.LastPurPrc', 'OITM.Consig'}</t>
+          <t>{'OITM.LastPurPrc', 'ITM2.VendorCode', 'ITM2.ItemCode', 'OITM.Consig', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="T467" t="inlineStr">
         <is>
-          <t>{'OADM.Code', 'OITM.CardCode', 'OADM.UseShpdGd', 'OITW.ItemCode'}</t>
+          <t>{'OADM.UseShpdGd', 'OITM.CardCode', 'OADM.Code', 'OITW.ItemCode'}</t>
         </is>
       </c>
       <c r="U467" t="n">
@@ -37880,7 +37880,7 @@
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>{'SITM', 'AITM'}</t>
+          <t>{'AITM', 'SITM'}</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
@@ -37890,12 +37890,12 @@
       </c>
       <c r="S468" t="inlineStr">
         <is>
-          <t>{'ITM4.Length1', 'ITM4.Width1', 'ITM4.ItemCode', 'OITM.ItemCode', 'OITM.ItemName', 'ITM4.Volume', 'ITM4.Height1', 'ITM4.QtyPerPack'}</t>
+          <t>{'ITM4.Volume', 'ITM4.Length1', 'ITM4.Height1', 'ITM4.Width1', 'ITM4.QtyPerPack', 'OITM.ItemName', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
         </is>
       </c>
       <c r="T468" t="inlineStr">
         <is>
-          <t>{'AITM.ItemName', 'AITM.ItemCode', 'SITM.SVolume', 'SITM.BLength1', 'SITM.ItemName', 'SITM.BWidth1', 'SITM.NumInSale', 'SITM.SHeight1'}</t>
+          <t>{'SITM.SVolume', 'AITM.ItemCode', 'SITM.SHeight1', 'AITM.ItemName', 'SITM.NumInSale', 'SITM.BLength1', 'SITM.BWidth1', 'SITM.ItemName'}</t>
         </is>
       </c>
       <c r="U468" t="n">
@@ -37975,7 +37975,7 @@
       </c>
       <c r="T469" t="inlineStr">
         <is>
-          <t>{'ITM7.ItemCode', 'INV6.DunnLevel', 'INV6.InsTotal'}</t>
+          <t>{'INV6.InsTotal', 'INV6.DunnLevel', 'ITM7.ItemCode'}</t>
         </is>
       </c>
       <c r="U469" t="n">
@@ -38055,7 +38055,7 @@
       </c>
       <c r="T470" t="inlineStr">
         <is>
-          <t>{'PCH1.Volume', 'PCH1.ItemCode', 'CPV1.ItemCode', 'CPV1.Volume'}</t>
+          <t>{'PCH1.Volume', 'CPV1.Volume', 'PCH1.ItemCode', 'CPV1.ItemCode'}</t>
         </is>
       </c>
       <c r="U470" t="n">
@@ -38130,12 +38130,12 @@
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItemName', 'OBCD.ItemCode', 'OBCD.BcdCode', 'OBCD.UomEntry'}</t>
+          <t>{'OBCD.ItemCode', 'OBCD.BcdCode', 'OITM.ItemName', 'OBCD.UomEntry', 'OITM.ItemCode'}</t>
         </is>
       </c>
       <c r="T471" t="inlineStr">
         <is>
-          <t>{'AITM.ItemName', 'INV1.unitMsr', 'INV1.SerialNum', 'AITM.CodeBars', 'INV1.ItemCode'}</t>
+          <t>{'AITM.ItemName', 'INV1.SerialNum', 'AITM.CodeBars', 'INV1.ItemCode', 'INV1.unitMsr'}</t>
         </is>
       </c>
       <c r="U471" t="n">
@@ -38205,7 +38205,7 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>{'OBFC.UpdateDate', 'OBFC.DispName', 'OBFC.DataSource', 'OBFC.Activated'}</t>
+          <t>{'OBFC.Activated', 'OBFC.DispName', 'OBFC.DataSource', 'OBFC.UpdateDate'}</t>
         </is>
       </c>
       <c r="S472" t="inlineStr">
@@ -38215,7 +38215,7 @@
       </c>
       <c r="T472" t="inlineStr">
         <is>
-          <t>{'OBRW.Name', 'AACT.DataSource', 'AACT.UpdateDate'}</t>
+          <t>{'AACT.DataSource', 'OBRW.Name', 'AACT.UpdateDate'}</t>
         </is>
       </c>
       <c r="U472" t="n">
@@ -38290,12 +38290,12 @@
       </c>
       <c r="S473" t="inlineStr">
         <is>
-          <t>{'OITB.ItmsGrpNam', 'OITB.ItmsGrpCod'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam'}</t>
         </is>
       </c>
       <c r="T473" t="inlineStr">
         <is>
-          <t>{'OITG.ItmsGrpNam', 'OITM.ItemCode'}</t>
+          <t>{'OITM.ItemCode', 'OITG.ItmsGrpNam'}</t>
         </is>
       </c>
       <c r="U473" t="n">
@@ -38355,7 +38355,7 @@
       </c>
       <c r="P474" t="inlineStr">
         <is>
-          <t>{'OITB', 'OITM', 'ITM4'}</t>
+          <t>{'OITM', 'OITB', 'ITM4'}</t>
         </is>
       </c>
       <c r="Q474" t="inlineStr">
@@ -38370,7 +38370,7 @@
       </c>
       <c r="S474" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'ITM4.ItemCode', 'OITM.ItemCode', 'ITM4.Volume', 'OITB.ItmsGrpNam', 'OITB.ItmsGrpCod'}</t>
+          <t>{'ITM4.Volume', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITB.ItmsGrpCod', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
         </is>
       </c>
       <c r="T474" t="inlineStr">
@@ -38450,7 +38450,7 @@
       </c>
       <c r="S475" t="inlineStr">
         <is>
-          <t>{'OECM.Descr', 'OECM.Code', 'ECM1.ParamName', 'ECM1.ParamPrms', 'ECM1.Code'}</t>
+          <t>{'ECM1.ParamPrms', 'OECM.Descr', 'ECM1.Code', 'OECM.Code', 'ECM1.ParamName'}</t>
         </is>
       </c>
       <c r="T475" t="inlineStr">
@@ -38515,12 +38515,12 @@
       </c>
       <c r="P476" t="inlineStr">
         <is>
-          <t>{'ECM4', 'OECM'}</t>
+          <t>{'OECM', 'ECM4'}</t>
         </is>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>{'SFI21', 'PCH22', 'DRF17', 'RIN25', 'WTR5', 'ITT1', 'RPD26', 'SFC26', 'OFPR', 'OITB', 'DPI23', 'RDR5', 'WTR25', 'CPI22', 'CPI21'}</t>
+          <t>{'RDR5', 'OFPR', 'SFC26', 'RIN25', 'CPI22', 'WTR5', 'RPD26', 'WTR25', 'DRF17', 'DPI23', 'SFI21', 'CPI21', 'OITB', 'ITT1', 'PCH22'}</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -38530,12 +38530,12 @@
       </c>
       <c r="S476" t="inlineStr">
         <is>
-          <t>{'ECM4.Code', 'OECM.Code', 'ECM4.ObjXPath', 'OECM.Descr', 'ECM4.FieldXPath'}</t>
+          <t>{'ECM4.FieldXPath', 'OECM.Descr', 'OECM.Code', 'ECM4.ObjXPath', 'ECM4.Code'}</t>
         </is>
       </c>
       <c r="T476" t="inlineStr">
         <is>
-          <t>{'WTR25.Type', 'WTR5.Type', 'OFPR.Name', 'RIN25.Type', 'ITT1.Type', 'SFC26.ObjectType', 'RPD26.ObjectType', 'SFI21.ObjectType', 'RDR5.Type', 'OITB.Object', 'DPI23.ObjectType', 'CPI21.ObjectType', 'DRF17.ObjectType', 'CPI22.ObjectType', 'PCH22.ObjectType', 'ITT1.Object'}</t>
+          <t>{'ITT1.Type', 'RIN25.Type', 'CPI22.ObjectType', 'SFC26.ObjectType', 'CPI21.ObjectType', 'WTR25.Type', 'OITB.Object', 'PCH22.ObjectType', 'SFI21.ObjectType', 'DPI23.ObjectType', 'RPD26.ObjectType', 'RDR5.Type', 'DRF17.ObjectType', 'OFPR.Name', 'ITT1.Object', 'WTR5.Type'}</t>
         </is>
       </c>
       <c r="U476" t="n">
@@ -38690,12 +38690,12 @@
       </c>
       <c r="S478" t="inlineStr">
         <is>
-          <t>{'OQAG.AUTHGRPCD', 'OQAG.AUTHGRPN', 'OQAG.UpdateDate', 'OQAG.LogInstanc', 'OQAG.CreateDate'}</t>
+          <t>{'OQAG.AUTHGRPCD', 'OQAG.UpdateDate', 'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.LogInstanc'}</t>
         </is>
       </c>
       <c r="T478" t="inlineStr">
         <is>
-          <t>{'OUGR.GroupId', 'OUGR.GroupDec'}</t>
+          <t>{'OUGR.GroupDec', 'OUGR.GroupId'}</t>
         </is>
       </c>
       <c r="U478" t="n">
@@ -38760,7 +38760,7 @@
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>{'CPV11', 'CPV1', 'INV1', 'WTR1'}</t>
+          <t>{'CPV1', 'WTR1', 'CPV11', 'INV1'}</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
@@ -38775,7 +38775,7 @@
       </c>
       <c r="T479" t="inlineStr">
         <is>
-          <t>{'INV1.Width1', 'CPV1.LineTotal', 'WTR1.Width1', 'CPV11.LineTotal'}</t>
+          <t>{'CPV11.LineTotal', 'INV1.Width1', 'CPV1.LineTotal', 'WTR1.Width1'}</t>
         </is>
       </c>
       <c r="U479" t="n">
@@ -38845,7 +38845,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>{'RDOC.ScreenFont', 'RDOC.TypeCode'}</t>
+          <t>{'RDOC.TypeCode', 'RDOC.ScreenFont'}</t>
         </is>
       </c>
       <c r="S480" t="inlineStr">
@@ -38930,7 +38930,7 @@
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t>{'RTYP.CODE', 'RTYP.DEFLT_REP', 'RTYP.NAME', 'RDOC.DocCode'}</t>
+          <t>{'RTYP.DEFLT_REP', 'RDOC.DocCode', 'RTYP.NAME', 'RTYP.CODE'}</t>
         </is>
       </c>
       <c r="T481" t="inlineStr">
@@ -38995,7 +38995,7 @@
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>{'RITM', 'RDOC'}</t>
+          <t>{'RDOC', 'RITM'}</t>
         </is>
       </c>
       <c r="Q482" t="inlineStr">
@@ -39010,7 +39010,7 @@
       </c>
       <c r="S482" t="inlineStr">
         <is>
-          <t>{'RDOC.DocName', 'RITM.DocCode', 'RDOC.TypeCode', 'RDOC.DocCode'}</t>
+          <t>{'RDOC.DocCode', 'RITM.DocCode', 'RDOC.DocName', 'RDOC.TypeCode'}</t>
         </is>
       </c>
       <c r="T482" t="inlineStr">
@@ -39170,7 +39170,7 @@
       </c>
       <c r="S484" t="inlineStr">
         <is>
-          <t>{'RITM.BGBlue', 'RITM.MrkrBlue', 'RITM.FGGreen', 'RITM.BrdrBlue', 'RITM.FGRed', 'RITM.BGGreen', 'RITM.Height', 'RITM.MrkrRed', 'RITM.MrkrGreen', 'RITM.BrdrGreen', 'RITM.BGRed', 'RITM.BrdrRed', 'RITM.FGBlue'}</t>
+          <t>{'RITM.FGGreen', 'RITM.BGRed', 'RITM.MrkrBlue', 'RITM.BGGreen', 'RITM.FGBlue', 'RITM.Height', 'RITM.BGBlue', 'RITM.FGRed', 'RITM.MrkrGreen', 'RITM.BrdrRed', 'RITM.MrkrRed', 'RITM.BrdrGreen', 'RITM.BrdrBlue'}</t>
         </is>
       </c>
       <c r="T484" t="inlineStr">
@@ -39240,7 +39240,7 @@
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>{'ORDR', 'OINV'}</t>
+          <t>{'OINV', 'ORDR'}</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
@@ -39255,7 +39255,7 @@
       </c>
       <c r="T485" t="inlineStr">
         <is>
-          <t>{'ORDR.BaseAmnt', 'ORDR.DocType', 'OINV.CardName'}</t>
+          <t>{'OINV.CardName', 'ORDR.DocType', 'ORDR.BaseAmnt'}</t>
         </is>
       </c>
       <c r="U485" t="n">
@@ -39330,12 +39330,12 @@
       </c>
       <c r="S486" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfS', 'OOPR.PrcnProf', 'OOPR.Status', 'OOPR.SumProfL'}</t>
+          <t>{'OOPR.PrcnProf', 'OOPR.Status', 'OOPR.SumProfS', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="T486" t="inlineStr">
         <is>
-          <t>{'ORIN.GrosProfSy', 'ORIN.DocTotal', 'RDR4.BaseSum', 'ORIN.GrosProfit'}</t>
+          <t>{'ORIN.GrosProfSy', 'ORIN.DocTotal', 'ORIN.GrosProfit', 'RDR4.BaseSum'}</t>
         </is>
       </c>
       <c r="U486" t="n">
@@ -39395,12 +39395,12 @@
       </c>
       <c r="P487" t="inlineStr">
         <is>
-          <t>{'OPR1', 'OOPR'}</t>
+          <t>{'OOPR', 'OPR1'}</t>
         </is>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>{'SVR1', 'RDR11', 'RDR1'}</t>
+          <t>{'RDR1', 'RDR11', 'SVR1'}</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
@@ -39410,12 +39410,12 @@
       </c>
       <c r="S487" t="inlineStr">
         <is>
-          <t>{'OPR1.OpprId', 'OOPR.OpprId', 'OOPR.CardCode', 'OPR1.ClosePrcnt'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpprId', 'OOPR.CardCode', 'OOPR.OpprId'}</t>
         </is>
       </c>
       <c r="T487" t="inlineStr">
         <is>
-          <t>{'RDR11.VatPrcnt', 'SVR1.transID', 'RDR1.DocEntry', 'RDR11.LineNum', 'RDR1.LineNum', 'RDR1.VatPrcnt', 'RDR11.DocEntry'}</t>
+          <t>{'RDR11.LineNum', 'RDR11.DocEntry', 'RDR11.VatPrcnt', 'RDR1.DocEntry', 'RDR1.LineNum', 'SVR1.transID', 'RDR1.VatPrcnt'}</t>
         </is>
       </c>
       <c r="U487" t="n">
@@ -39480,7 +39480,7 @@
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>{'RIN1', 'RDR1'}</t>
+          <t>{'RDR1', 'RIN1'}</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39495,7 +39495,7 @@
       </c>
       <c r="T488" t="inlineStr">
         <is>
-          <t>{'RDR1.Currency', 'RIN1.Currency', 'RDR1.DocDate', 'RIN1.DocDate'}</t>
+          <t>{'RDR1.DocDate', 'RIN1.Currency', 'RDR1.Currency', 'RIN1.DocDate'}</t>
         </is>
       </c>
       <c r="U488" t="n">
@@ -39570,12 +39570,12 @@
       </c>
       <c r="S489" t="inlineStr">
         <is>
-          <t>{'OPRC.DataSource', 'OPRC.PrcCode', 'OPRC.Balance', 'OPRC.ValidFrom', 'OPRC.PrcName', 'OPRC.Active'}</t>
+          <t>{'OPRC.Balance', 'OPRC.DataSource', 'OPRC.PrcCode', 'OPRC.PrcName', 'OPRC.Active', 'OPRC.ValidFrom'}</t>
         </is>
       </c>
       <c r="T489" t="inlineStr">
         <is>
-          <t>{'OACT.ValidFrom', 'OACT.ValidTo'}</t>
+          <t>{'OACT.ValidTo', 'OACT.ValidFrom'}</t>
         </is>
       </c>
       <c r="U489" t="n">
@@ -39640,12 +39640,12 @@
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OINV'}</t>
+          <t>{'OINV', 'OCRD'}</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealSumSys', 'OOPR.CardName', 'OOPR.RealSumLoc', 'OOPR.CloPrcnt'}</t>
+          <t>{'OOPR.CloPrcnt', 'OOPR.RealSumLoc', 'OOPR.CardName', 'OOPR.RealSumSys'}</t>
         </is>
       </c>
       <c r="S490" t="inlineStr">
@@ -39655,7 +39655,7 @@
       </c>
       <c r="T490" t="inlineStr">
         <is>
-          <t>{'OCRD.CardCode', 'OOPR.Name', 'OINV.DocEntry', 'OINV.ObjType', 'OCRD.CardName', 'OOPR.OpprId', 'OINV.IndFinal', 'OINV.CardCode', 'OOPR.CardCode', 'OINV.GrosProfit', 'OINV.CardName'}</t>
+          <t>{'OOPR.Name', 'OCRD.CardCode', 'OOPR.OpprId', 'OINV.GrosProfit', 'OINV.ObjType', 'OINV.IndFinal', 'OINV.DocEntry', 'OINV.CardCode', 'OCRD.CardName', 'OOPR.CardCode', 'OINV.CardName'}</t>
         </is>
       </c>
       <c r="U490" t="n">
@@ -39730,7 +39730,7 @@
       </c>
       <c r="S491" t="inlineStr">
         <is>
-          <t>{'OPR1.OpenDate', 'OPR1.CloseDate', 'OPR1.ClosePrcnt'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpenDate', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="T491" t="inlineStr">
@@ -39810,7 +39810,7 @@
       </c>
       <c r="S492" t="inlineStr">
         <is>
-          <t>{'OOPR.Status', 'OOPR.OpenDate'}</t>
+          <t>{'OOPR.OpenDate', 'OOPR.Status'}</t>
         </is>
       </c>
       <c r="T492" t="inlineStr">
@@ -39890,7 +39890,7 @@
       </c>
       <c r="S493" t="inlineStr">
         <is>
-          <t>{'OPRC.DimCode', 'OPRC.PrcName'}</t>
+          <t>{'OPRC.PrcName', 'OPRC.DimCode'}</t>
         </is>
       </c>
       <c r="T493" t="inlineStr">
@@ -40035,7 +40035,7 @@
       </c>
       <c r="P495" t="inlineStr">
         <is>
-          <t>{'OCTR', 'CTR1'}</t>
+          <t>{'CTR1', 'OCTR'}</t>
         </is>
       </c>
       <c r="Q495" t="inlineStr">
@@ -40050,7 +40050,7 @@
       </c>
       <c r="S495" t="inlineStr">
         <is>
-          <t>{'CTR1.ContractID', 'OCTR.ContractID'}</t>
+          <t>{'OCTR.ContractID', 'CTR1.ContractID'}</t>
         </is>
       </c>
       <c r="T495" t="inlineStr">
@@ -40125,7 +40125,7 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrName', 'OCTR.ContractID', 'OCTR.Renewal'}</t>
+          <t>{'OCTR.ContractID', 'OCTR.CstmrName', 'OCTR.Renewal'}</t>
         </is>
       </c>
       <c r="S496" t="inlineStr">
@@ -40210,7 +40210,7 @@
       </c>
       <c r="S497" t="inlineStr">
         <is>
-          <t>{'OINS.country', 'OINS.state'}</t>
+          <t>{'OINS.state', 'OINS.country'}</t>
         </is>
       </c>
       <c r="T497" t="inlineStr">
@@ -40440,7 +40440,7 @@
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>{'CRD7', 'OCLG'}</t>
+          <t>{'OCLG', 'CRD7'}</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
@@ -40455,7 +40455,7 @@
       </c>
       <c r="T500" t="inlineStr">
         <is>
-          <t>{'OCLG.Priority', 'OCLG.CardCode', 'CRD7.CardCode'}</t>
+          <t>{'OCLG.Priority', 'CRD7.CardCode', 'OCLG.CardCode'}</t>
         </is>
       </c>
       <c r="U500" t="n">
@@ -40530,12 +40530,12 @@
       </c>
       <c r="S501" t="inlineStr">
         <is>
-          <t>{'OSCO.originID', 'OSCL.origin', 'OSCO.Name', 'OSCL.respOnDate', 'OSCL.resolOnDat', 'OSCL.AssignDate'}</t>
+          <t>{'OSCL.resolOnDat', 'OSCO.Name', 'OSCL.origin', 'OSCO.originID', 'OSCL.respOnDate', 'OSCL.AssignDate'}</t>
         </is>
       </c>
       <c r="T501" t="inlineStr">
         <is>
-          <t>{'OWLS.ObjType', 'OSCL.StartDate', 'OWLS.EnterDate'}</t>
+          <t>{'OWLS.ObjType', 'OWLS.EnterDate', 'OSCL.StartDate'}</t>
         </is>
       </c>
       <c r="U501" t="n">
@@ -40600,7 +40600,7 @@
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>{'OCRD', 'CRD2', 'CRD1'}</t>
+          <t>{'CRD2', 'CRD1', 'OCRD'}</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40610,12 +40610,12 @@
       </c>
       <c r="S502" t="inlineStr">
         <is>
-          <t>{'OSCL.BPShipAddr', 'OSCL.BPBillAddr', 'OSCL.custmrName', 'OSCL.BPE_Mail'}</t>
+          <t>{'OSCL.BPBillAddr', 'OSCL.BPShipAddr', 'OSCL.custmrName', 'OSCL.BPE_Mail'}</t>
         </is>
       </c>
       <c r="T502" t="inlineStr">
         <is>
-          <t>{'OCRD.CardCode', 'CRD1.CardCode', 'OCRD.CardName', 'CRD2.CardCode', 'CRD1.Address2', 'CRD1.Address3', 'OCRD.Address', 'CRD1.Address'}</t>
+          <t>{'OCRD.CardCode', 'CRD1.CardCode', 'CRD1.Address3', 'CRD1.Address', 'OCRD.Address', 'OCRD.CardName', 'CRD1.Address2', 'CRD2.CardCode'}</t>
         </is>
       </c>
       <c r="U502" t="n">
@@ -40680,7 +40680,7 @@
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>{'OITM', 'OITG', 'OSLT', 'OHEM', 'OITB', 'OADM', 'OITR'}</t>
+          <t>{'OADM', 'OITG', 'OITR', 'OITB', 'OITM', 'OSLT', 'OHEM'}</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40695,7 +40695,7 @@
       </c>
       <c r="T503" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.UserSign', 'OHEM.UserSign', 'OHEM.empID', 'OSLT.Owner', 'OITG.UserSign', 'OITR.ObjType', 'OITM.UserSign', 'OADM.UserSign', 'OITB.ItmsGrpCod'}</t>
+          <t>{'OITR.ObjType', 'OITG.UserSign', 'OITM.ItmsGrpCod', 'OITM.UserSign', 'OHEM.empID', 'OITB.ItmsGrpCod', 'OSLT.Owner', 'OHEM.UserSign', 'OITB.UserSign', 'OADM.UserSign'}</t>
         </is>
       </c>
       <c r="U503" t="n">
@@ -40760,7 +40760,7 @@
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>{'AITM', 'OCSN', 'ACR1', 'ACR3', 'AHEM'}</t>
+          <t>{'ACR1', 'ACR3', 'AITM', 'AHEM', 'OCSN'}</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
@@ -40770,12 +40770,12 @@
       </c>
       <c r="S504" t="inlineStr">
         <is>
-          <t>{'OINS.custmrName', 'OINS.internalSN', 'OINS.itemCode'}</t>
+          <t>{'OINS.internalSN', 'OINS.custmrName', 'OINS.itemCode'}</t>
         </is>
       </c>
       <c r="T504" t="inlineStr">
         <is>
-          <t>{'ACR1.ObjType', 'ACR1.UserSign', 'AITM.ItemCode', 'ACR1.LogInstanc', 'AITM.CardCode', 'ACR1.CardCode', 'OCSN.Code', 'ACR1.LineNum', 'ACR3.CardCode', 'AHEM.Code', 'ACR3.ObjType'}</t>
+          <t>{'AITM.ItemCode', 'AHEM.Code', 'ACR1.CardCode', 'ACR3.CardCode', 'ACR1.LogInstanc', 'OCSN.Code', 'ACR1.UserSign', 'ACR1.LineNum', 'ACR3.ObjType', 'AITM.CardCode', 'ACR1.ObjType'}</t>
         </is>
       </c>
       <c r="U504" t="n">
